--- a/QA_Testing/Test Cases/TestCases 1.0.xlsx
+++ b/QA_Testing/Test Cases/TestCases 1.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA\MyWorkSpace_2020\Demo\UploadFolder\Test Cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA\MyWorkSpace_2020\Demo\QA_Testing\Cofest\pyramid-codefest-documents\QA_Testing\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="4110" windowWidth="15000" windowHeight="3015" tabRatio="961"/>
+    <workbookView xWindow="360" yWindow="4110" windowWidth="15000" windowHeight="3015" tabRatio="961" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="12" r:id="rId1"/>
@@ -910,27 +910,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Verify the system shall allow user to Capture feedback for TP1 and TP2 interviews against the Job Profile
-• Candidate Name (First and Last Name)
-• Gender
-• Email
-• Address
-• Phone
-• Hiring Manager 
-• Status (i.e. "Interview Scheduled", Pass, Fail, On-Hold, Offered, Offer Accepted)
-• Due Date (Editable on click of edit button) 
-• Qualification and Skills
-• No of years of Experience
-• Current CTC
-• Expected CTC
-• Key Skills 
-• TP1(Text Area), TP2(Text Area) Feedback
-• Is Joined
-• Shortlisted (Button) --Select due date first
-•  Edit, Save, Schedule Meeting  buttons (Button-It will enable in that case only when interview is not scheduled)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">The system shall allow user to Capture feedback for TP1 and TP2 interviews against the Job Profile
 • Candidate Name (First and Last Name)
 • Gender
@@ -975,12 +954,54 @@
       <t>"  button</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify the system shall allow user to Capture feedback for TP1 and TP2 interviews against the Job Profile
+• Candidate Name (First and Last Name)
+• Gender
+• Email
+• Address
+• Phone
+• Hiring Manager 
+• Status (i.e. "Interview Scheduled", Pass, Fail, On-Hold, Offered, Offer Accepted)
+• Due Date (Editable on click of edit button) 
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Qualification and Skills
+• No of years of Experience
+• Current CTC
+• Expected CTC
+• Key Skills </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• TP1(Text Area), TP2(Text Area) Feedback
+• Is Joined
+• Shortlisted (Button) --Select due date first
+•  Edit, Save, Schedule Meeting  buttons (Button-It will enable in that case only when interview is not scheduled)
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1076,6 +1097,13 @@
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1531,13 +1559,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1552,25 +1589,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1938,8 +1966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E5:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2308,9 +2336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2374,7 +2400,7 @@
       <c r="A2" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="56" t="s">
         <v>117</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -2404,13 +2430,13 @@
       <c r="K2" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="69"/>
-      <c r="M2" s="64"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="40"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
-      <c r="B3" s="68"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="21" t="s">
         <v>33</v>
       </c>
@@ -2439,12 +2465,12 @@
         <v>32</v>
       </c>
       <c r="L3" s="54"/>
-      <c r="M3" s="68"/>
+      <c r="M3" s="57"/>
       <c r="N3" s="40"/>
     </row>
     <row r="4" spans="1:14" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="55"/>
-      <c r="B4" s="67"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="25" t="s">
         <v>34</v>
       </c>
@@ -2473,14 +2499,14 @@
         <v>32</v>
       </c>
       <c r="L4" s="55"/>
-      <c r="M4" s="67"/>
+      <c r="M4" s="58"/>
       <c r="N4" s="40"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="56" t="s">
         <v>107</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -2510,13 +2536,13 @@
       <c r="K5" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="69"/>
-      <c r="M5" s="64"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="56"/>
       <c r="N5" s="40"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="54"/>
-      <c r="B6" s="68"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="21" t="s">
         <v>33</v>
       </c>
@@ -2545,12 +2571,12 @@
         <v>32</v>
       </c>
       <c r="L6" s="54"/>
-      <c r="M6" s="68"/>
+      <c r="M6" s="57"/>
       <c r="N6" s="40"/>
     </row>
     <row r="7" spans="1:14" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="55"/>
-      <c r="B7" s="67"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="25" t="s">
         <v>34</v>
       </c>
@@ -2579,14 +2605,14 @@
         <v>32</v>
       </c>
       <c r="L7" s="55"/>
-      <c r="M7" s="67"/>
+      <c r="M7" s="58"/>
       <c r="N7" s="40"/>
     </row>
     <row r="8" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="56" t="s">
         <v>94</v>
       </c>
       <c r="C8" s="18" t="s">
@@ -2616,13 +2642,13 @@
       <c r="K8" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="69"/>
-      <c r="M8" s="64"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="56"/>
       <c r="N8" s="40"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="54"/>
-      <c r="B9" s="68"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="21" t="s">
         <v>33</v>
       </c>
@@ -2651,12 +2677,12 @@
         <v>32</v>
       </c>
       <c r="L9" s="54"/>
-      <c r="M9" s="68"/>
+      <c r="M9" s="57"/>
       <c r="N9" s="40"/>
     </row>
     <row r="10" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="55"/>
-      <c r="B10" s="67"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="25" t="s">
         <v>34</v>
       </c>
@@ -2685,14 +2711,14 @@
         <v>32</v>
       </c>
       <c r="L10" s="55"/>
-      <c r="M10" s="67"/>
+      <c r="M10" s="58"/>
       <c r="N10" s="40"/>
     </row>
     <row r="11" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="56" t="s">
         <v>97</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -2723,12 +2749,12 @@
         <v>32</v>
       </c>
       <c r="L11" s="53"/>
-      <c r="M11" s="64"/>
+      <c r="M11" s="56"/>
       <c r="N11" s="40"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="54"/>
-      <c r="B12" s="68"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="21" t="s">
         <v>33</v>
       </c>
@@ -2757,12 +2783,12 @@
         <v>32</v>
       </c>
       <c r="L12" s="54"/>
-      <c r="M12" s="68"/>
+      <c r="M12" s="57"/>
       <c r="N12" s="40"/>
     </row>
     <row r="13" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="55"/>
-      <c r="B13" s="67"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="25" t="s">
         <v>34</v>
       </c>
@@ -2791,14 +2817,14 @@
         <v>32</v>
       </c>
       <c r="L13" s="55"/>
-      <c r="M13" s="67"/>
+      <c r="M13" s="58"/>
       <c r="N13" s="40"/>
     </row>
     <row r="14" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="56" t="s">
         <v>100</v>
       </c>
       <c r="C14" s="18" t="s">
@@ -2829,12 +2855,12 @@
         <v>32</v>
       </c>
       <c r="L14" s="53"/>
-      <c r="M14" s="64"/>
+      <c r="M14" s="56"/>
       <c r="N14" s="40"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="54"/>
-      <c r="B15" s="68"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="21" t="s">
         <v>33</v>
       </c>
@@ -2863,12 +2889,12 @@
         <v>32</v>
       </c>
       <c r="L15" s="54"/>
-      <c r="M15" s="68"/>
+      <c r="M15" s="57"/>
       <c r="N15" s="40"/>
     </row>
     <row r="16" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="55"/>
-      <c r="B16" s="67"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="25" t="s">
         <v>34</v>
       </c>
@@ -2897,12 +2923,12 @@
         <v>32</v>
       </c>
       <c r="L16" s="55"/>
-      <c r="M16" s="67"/>
+      <c r="M16" s="58"/>
       <c r="N16" s="40"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="53"/>
-      <c r="B17" s="64"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="18"/>
       <c r="D17" s="50"/>
       <c r="E17" s="50"/>
@@ -2913,12 +2939,12 @@
       <c r="J17" s="20"/>
       <c r="K17" s="41"/>
       <c r="L17" s="53"/>
-      <c r="M17" s="59"/>
+      <c r="M17" s="62"/>
       <c r="N17" s="40"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="54"/>
-      <c r="B18" s="68"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="21"/>
       <c r="D18" s="47"/>
       <c r="E18" s="47"/>
@@ -2929,12 +2955,12 @@
       <c r="J18" s="24"/>
       <c r="K18" s="42"/>
       <c r="L18" s="54"/>
-      <c r="M18" s="60"/>
+      <c r="M18" s="63"/>
       <c r="N18" s="40"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="63"/>
-      <c r="B19" s="66"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="25"/>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
@@ -2944,13 +2970,13 @@
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
       <c r="K19" s="43"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="63"/>
       <c r="N19" s="40"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="63"/>
-      <c r="B20" s="66"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="32"/>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
@@ -2960,13 +2986,13 @@
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
       <c r="K20" s="44"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="61"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="64"/>
       <c r="N20" s="40"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="53"/>
-      <c r="B21" s="64"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="18"/>
       <c r="D21" s="50"/>
       <c r="E21" s="50"/>
@@ -2977,12 +3003,12 @@
       <c r="J21" s="20"/>
       <c r="K21" s="41"/>
       <c r="L21" s="53"/>
-      <c r="M21" s="59"/>
+      <c r="M21" s="62"/>
       <c r="N21" s="40"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="54"/>
-      <c r="B22" s="68"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="21"/>
       <c r="D22" s="47"/>
       <c r="E22" s="47"/>
@@ -2993,12 +3019,12 @@
       <c r="J22" s="24"/>
       <c r="K22" s="42"/>
       <c r="L22" s="54"/>
-      <c r="M22" s="60"/>
+      <c r="M22" s="63"/>
       <c r="N22" s="40"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
-      <c r="B23" s="68"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="21"/>
       <c r="D23" s="47"/>
       <c r="E23" s="47"/>
@@ -3009,12 +3035,12 @@
       <c r="J23" s="24"/>
       <c r="K23" s="42"/>
       <c r="L23" s="54"/>
-      <c r="M23" s="60"/>
+      <c r="M23" s="63"/>
       <c r="N23" s="40"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="63"/>
-      <c r="B24" s="66"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="61"/>
       <c r="C24" s="21"/>
       <c r="D24" s="47"/>
       <c r="E24" s="47"/>
@@ -3024,13 +3050,13 @@
       <c r="I24" s="24"/>
       <c r="J24" s="24"/>
       <c r="K24" s="42"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="63"/>
       <c r="N24" s="40"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="55"/>
-      <c r="B25" s="67"/>
+      <c r="B25" s="58"/>
       <c r="C25" s="25"/>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
@@ -3041,12 +3067,12 @@
       <c r="J25" s="28"/>
       <c r="K25" s="43"/>
       <c r="L25" s="55"/>
-      <c r="M25" s="61"/>
+      <c r="M25" s="64"/>
       <c r="N25" s="40"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="62"/>
-      <c r="B26" s="65"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="33"/>
       <c r="D26" s="51"/>
       <c r="E26" s="51"/>
@@ -3056,13 +3082,13 @@
       <c r="I26" s="35"/>
       <c r="J26" s="35"/>
       <c r="K26" s="45"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="59"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="62"/>
       <c r="N26" s="40"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="54"/>
-      <c r="B27" s="68"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="21"/>
       <c r="D27" s="47"/>
       <c r="E27" s="47"/>
@@ -3073,12 +3099,12 @@
       <c r="J27" s="24"/>
       <c r="K27" s="42"/>
       <c r="L27" s="54"/>
-      <c r="M27" s="60"/>
+      <c r="M27" s="63"/>
       <c r="N27" s="40"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
-      <c r="B28" s="68"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="21"/>
       <c r="D28" s="47"/>
       <c r="E28" s="47"/>
@@ -3089,12 +3115,12 @@
       <c r="J28" s="24"/>
       <c r="K28" s="42"/>
       <c r="L28" s="54"/>
-      <c r="M28" s="60"/>
+      <c r="M28" s="63"/>
       <c r="N28" s="40"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="55"/>
-      <c r="B29" s="67"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="25"/>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
@@ -3105,12 +3131,12 @@
       <c r="J29" s="28"/>
       <c r="K29" s="43"/>
       <c r="L29" s="55"/>
-      <c r="M29" s="61"/>
+      <c r="M29" s="64"/>
       <c r="N29" s="40"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="53"/>
-      <c r="B30" s="56"/>
+      <c r="B30" s="67"/>
       <c r="C30" s="18"/>
       <c r="D30" s="50"/>
       <c r="E30" s="50"/>
@@ -3121,12 +3147,12 @@
       <c r="J30" s="20"/>
       <c r="K30" s="41"/>
       <c r="L30" s="53"/>
-      <c r="M30" s="59"/>
+      <c r="M30" s="62"/>
       <c r="N30" s="40"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="54"/>
-      <c r="B31" s="57"/>
+      <c r="B31" s="68"/>
       <c r="C31" s="21"/>
       <c r="D31" s="47"/>
       <c r="E31" s="47"/>
@@ -3137,12 +3163,12 @@
       <c r="J31" s="24"/>
       <c r="K31" s="42"/>
       <c r="L31" s="54"/>
-      <c r="M31" s="60"/>
+      <c r="M31" s="63"/>
       <c r="N31" s="40"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
-      <c r="B32" s="57"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="21"/>
       <c r="D32" s="47"/>
       <c r="E32" s="47"/>
@@ -3153,12 +3179,12 @@
       <c r="J32" s="24"/>
       <c r="K32" s="42"/>
       <c r="L32" s="54"/>
-      <c r="M32" s="60"/>
+      <c r="M32" s="63"/>
       <c r="N32" s="40"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="54"/>
-      <c r="B33" s="57"/>
+      <c r="B33" s="68"/>
       <c r="C33" s="21"/>
       <c r="D33" s="47"/>
       <c r="E33" s="47"/>
@@ -3169,12 +3195,12 @@
       <c r="J33" s="24"/>
       <c r="K33" s="42"/>
       <c r="L33" s="54"/>
-      <c r="M33" s="60"/>
+      <c r="M33" s="63"/>
       <c r="N33" s="40"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="55"/>
-      <c r="B34" s="58"/>
+      <c r="B34" s="69"/>
       <c r="C34" s="25"/>
       <c r="D34" s="26"/>
       <c r="E34" s="36"/>
@@ -3185,12 +3211,12 @@
       <c r="J34" s="28"/>
       <c r="K34" s="43"/>
       <c r="L34" s="55"/>
-      <c r="M34" s="61"/>
+      <c r="M34" s="64"/>
       <c r="N34" s="40"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="53"/>
-      <c r="B35" s="56"/>
+      <c r="B35" s="67"/>
       <c r="C35" s="18"/>
       <c r="D35" s="50"/>
       <c r="E35" s="50"/>
@@ -3201,12 +3227,12 @@
       <c r="J35" s="20"/>
       <c r="K35" s="41"/>
       <c r="L35" s="53"/>
-      <c r="M35" s="59"/>
+      <c r="M35" s="62"/>
       <c r="N35" s="40"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="54"/>
-      <c r="B36" s="57"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="21"/>
       <c r="D36" s="47"/>
       <c r="E36" s="47"/>
@@ -3217,12 +3243,12 @@
       <c r="J36" s="24"/>
       <c r="K36" s="42"/>
       <c r="L36" s="54"/>
-      <c r="M36" s="60"/>
+      <c r="M36" s="63"/>
       <c r="N36" s="40"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="54"/>
-      <c r="B37" s="57"/>
+      <c r="B37" s="68"/>
       <c r="C37" s="21"/>
       <c r="D37" s="47"/>
       <c r="E37" s="47"/>
@@ -3233,12 +3259,12 @@
       <c r="J37" s="24"/>
       <c r="K37" s="42"/>
       <c r="L37" s="54"/>
-      <c r="M37" s="60"/>
+      <c r="M37" s="63"/>
       <c r="N37" s="40"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="54"/>
-      <c r="B38" s="57"/>
+      <c r="B38" s="68"/>
       <c r="C38" s="21"/>
       <c r="D38" s="47"/>
       <c r="E38" s="47"/>
@@ -3249,12 +3275,12 @@
       <c r="J38" s="24"/>
       <c r="K38" s="42"/>
       <c r="L38" s="54"/>
-      <c r="M38" s="60"/>
+      <c r="M38" s="63"/>
       <c r="N38" s="40"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="55"/>
-      <c r="B39" s="58"/>
+      <c r="B39" s="69"/>
       <c r="C39" s="25"/>
       <c r="D39" s="26"/>
       <c r="E39" s="36"/>
@@ -3265,12 +3291,12 @@
       <c r="J39" s="28"/>
       <c r="K39" s="43"/>
       <c r="L39" s="55"/>
-      <c r="M39" s="61"/>
+      <c r="M39" s="64"/>
       <c r="N39" s="40"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="53"/>
-      <c r="B40" s="56"/>
+      <c r="B40" s="67"/>
       <c r="C40" s="18"/>
       <c r="D40" s="50"/>
       <c r="E40" s="50"/>
@@ -3281,12 +3307,12 @@
       <c r="J40" s="20"/>
       <c r="K40" s="41"/>
       <c r="L40" s="53"/>
-      <c r="M40" s="59"/>
+      <c r="M40" s="62"/>
       <c r="N40" s="40"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="54"/>
-      <c r="B41" s="57"/>
+      <c r="B41" s="68"/>
       <c r="C41" s="21"/>
       <c r="D41" s="47"/>
       <c r="E41" s="47"/>
@@ -3297,12 +3323,12 @@
       <c r="J41" s="24"/>
       <c r="K41" s="42"/>
       <c r="L41" s="54"/>
-      <c r="M41" s="60"/>
+      <c r="M41" s="63"/>
       <c r="N41" s="40"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="54"/>
-      <c r="B42" s="57"/>
+      <c r="B42" s="68"/>
       <c r="C42" s="21"/>
       <c r="D42" s="47"/>
       <c r="E42" s="47"/>
@@ -3313,12 +3339,12 @@
       <c r="J42" s="24"/>
       <c r="K42" s="42"/>
       <c r="L42" s="54"/>
-      <c r="M42" s="60"/>
+      <c r="M42" s="63"/>
       <c r="N42" s="40"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="54"/>
-      <c r="B43" s="57"/>
+      <c r="B43" s="68"/>
       <c r="C43" s="21"/>
       <c r="D43" s="47"/>
       <c r="E43" s="47"/>
@@ -3329,12 +3355,12 @@
       <c r="J43" s="24"/>
       <c r="K43" s="42"/>
       <c r="L43" s="54"/>
-      <c r="M43" s="60"/>
+      <c r="M43" s="63"/>
       <c r="N43" s="40"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="55"/>
-      <c r="B44" s="58"/>
+      <c r="B44" s="69"/>
       <c r="C44" s="25"/>
       <c r="D44" s="26"/>
       <c r="E44" s="36"/>
@@ -3345,12 +3371,12 @@
       <c r="J44" s="28"/>
       <c r="K44" s="43"/>
       <c r="L44" s="55"/>
-      <c r="M44" s="61"/>
+      <c r="M44" s="64"/>
       <c r="N44" s="40"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="53"/>
-      <c r="B45" s="56"/>
+      <c r="B45" s="67"/>
       <c r="C45" s="18"/>
       <c r="D45" s="50"/>
       <c r="E45" s="50"/>
@@ -3361,12 +3387,12 @@
       <c r="J45" s="20"/>
       <c r="K45" s="41"/>
       <c r="L45" s="53"/>
-      <c r="M45" s="59"/>
+      <c r="M45" s="62"/>
       <c r="N45" s="40"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="54"/>
-      <c r="B46" s="57"/>
+      <c r="B46" s="68"/>
       <c r="C46" s="21"/>
       <c r="D46" s="47"/>
       <c r="E46" s="47"/>
@@ -3377,12 +3403,12 @@
       <c r="J46" s="24"/>
       <c r="K46" s="42"/>
       <c r="L46" s="54"/>
-      <c r="M46" s="60"/>
+      <c r="M46" s="63"/>
       <c r="N46" s="40"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="54"/>
-      <c r="B47" s="57"/>
+      <c r="B47" s="68"/>
       <c r="C47" s="21"/>
       <c r="D47" s="47"/>
       <c r="E47" s="47"/>
@@ -3393,12 +3419,12 @@
       <c r="J47" s="24"/>
       <c r="K47" s="42"/>
       <c r="L47" s="54"/>
-      <c r="M47" s="60"/>
+      <c r="M47" s="63"/>
       <c r="N47" s="40"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="54"/>
-      <c r="B48" s="57"/>
+      <c r="B48" s="68"/>
       <c r="C48" s="21"/>
       <c r="D48" s="47"/>
       <c r="E48" s="47"/>
@@ -3409,12 +3435,12 @@
       <c r="J48" s="24"/>
       <c r="K48" s="42"/>
       <c r="L48" s="54"/>
-      <c r="M48" s="60"/>
+      <c r="M48" s="63"/>
       <c r="N48" s="40"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="55"/>
-      <c r="B49" s="58"/>
+      <c r="B49" s="69"/>
       <c r="C49" s="25"/>
       <c r="D49" s="26"/>
       <c r="E49" s="36"/>
@@ -3425,12 +3451,12 @@
       <c r="J49" s="28"/>
       <c r="K49" s="43"/>
       <c r="L49" s="55"/>
-      <c r="M49" s="61"/>
+      <c r="M49" s="64"/>
       <c r="N49" s="40"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="53"/>
-      <c r="B50" s="56"/>
+      <c r="B50" s="67"/>
       <c r="C50" s="18"/>
       <c r="D50" s="50"/>
       <c r="E50" s="50"/>
@@ -3441,12 +3467,12 @@
       <c r="J50" s="20"/>
       <c r="K50" s="41"/>
       <c r="L50" s="53"/>
-      <c r="M50" s="59"/>
+      <c r="M50" s="62"/>
       <c r="N50" s="40"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="54"/>
-      <c r="B51" s="57"/>
+      <c r="B51" s="68"/>
       <c r="C51" s="21"/>
       <c r="D51" s="47"/>
       <c r="E51" s="47"/>
@@ -3457,12 +3483,12 @@
       <c r="J51" s="24"/>
       <c r="K51" s="42"/>
       <c r="L51" s="54"/>
-      <c r="M51" s="60"/>
+      <c r="M51" s="63"/>
       <c r="N51" s="40"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="54"/>
-      <c r="B52" s="57"/>
+      <c r="B52" s="68"/>
       <c r="C52" s="21"/>
       <c r="D52" s="47"/>
       <c r="E52" s="47"/>
@@ -3473,12 +3499,12 @@
       <c r="J52" s="24"/>
       <c r="K52" s="42"/>
       <c r="L52" s="54"/>
-      <c r="M52" s="60"/>
+      <c r="M52" s="63"/>
       <c r="N52" s="40"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="54"/>
-      <c r="B53" s="57"/>
+      <c r="B53" s="68"/>
       <c r="C53" s="21"/>
       <c r="D53" s="47"/>
       <c r="E53" s="47"/>
@@ -3489,12 +3515,12 @@
       <c r="J53" s="24"/>
       <c r="K53" s="42"/>
       <c r="L53" s="54"/>
-      <c r="M53" s="60"/>
+      <c r="M53" s="63"/>
       <c r="N53" s="40"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="55"/>
-      <c r="B54" s="58"/>
+      <c r="B54" s="69"/>
       <c r="C54" s="25"/>
       <c r="D54" s="26"/>
       <c r="E54" s="36"/>
@@ -3505,12 +3531,12 @@
       <c r="J54" s="28"/>
       <c r="K54" s="43"/>
       <c r="L54" s="55"/>
-      <c r="M54" s="61"/>
+      <c r="M54" s="64"/>
       <c r="N54" s="40"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="53"/>
-      <c r="B55" s="64"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="18"/>
       <c r="D55" s="50"/>
       <c r="E55" s="50"/>
@@ -3521,12 +3547,12 @@
       <c r="J55" s="20"/>
       <c r="K55" s="41"/>
       <c r="L55" s="53"/>
-      <c r="M55" s="59"/>
+      <c r="M55" s="62"/>
       <c r="N55" s="40"/>
     </row>
     <row r="56" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="62"/>
-      <c r="B56" s="65"/>
+      <c r="A56" s="65"/>
+      <c r="B56" s="66"/>
       <c r="C56" s="33"/>
       <c r="D56" s="47"/>
       <c r="E56" s="47"/>
@@ -3536,13 +3562,13 @@
       <c r="I56" s="35"/>
       <c r="J56" s="20"/>
       <c r="K56" s="41"/>
-      <c r="L56" s="62"/>
-      <c r="M56" s="60"/>
+      <c r="L56" s="65"/>
+      <c r="M56" s="63"/>
       <c r="N56" s="40"/>
     </row>
     <row r="57" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="63"/>
-      <c r="B57" s="66"/>
+      <c r="A57" s="60"/>
+      <c r="B57" s="61"/>
       <c r="C57" s="21"/>
       <c r="D57" s="47"/>
       <c r="E57" s="47"/>
@@ -3552,13 +3578,13 @@
       <c r="I57" s="24"/>
       <c r="J57" s="24"/>
       <c r="K57" s="42"/>
-      <c r="L57" s="63"/>
-      <c r="M57" s="60"/>
+      <c r="L57" s="60"/>
+      <c r="M57" s="63"/>
       <c r="N57" s="40"/>
     </row>
     <row r="58" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="55"/>
-      <c r="B58" s="67"/>
+      <c r="B58" s="58"/>
       <c r="C58" s="25"/>
       <c r="D58" s="26"/>
       <c r="E58" s="26"/>
@@ -3569,12 +3595,12 @@
       <c r="J58" s="28"/>
       <c r="K58" s="43"/>
       <c r="L58" s="55"/>
-      <c r="M58" s="61"/>
+      <c r="M58" s="64"/>
       <c r="N58" s="40"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="53"/>
-      <c r="B59" s="56"/>
+      <c r="B59" s="67"/>
       <c r="C59" s="18"/>
       <c r="D59" s="50"/>
       <c r="E59" s="50"/>
@@ -3585,12 +3611,12 @@
       <c r="J59" s="20"/>
       <c r="K59" s="41"/>
       <c r="L59" s="53"/>
-      <c r="M59" s="59"/>
+      <c r="M59" s="62"/>
       <c r="N59" s="40"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="54"/>
-      <c r="B60" s="57"/>
+      <c r="B60" s="68"/>
       <c r="C60" s="21"/>
       <c r="D60" s="47"/>
       <c r="E60" s="47"/>
@@ -3601,12 +3627,12 @@
       <c r="J60" s="24"/>
       <c r="K60" s="42"/>
       <c r="L60" s="54"/>
-      <c r="M60" s="60"/>
+      <c r="M60" s="63"/>
       <c r="N60" s="40"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="54"/>
-      <c r="B61" s="57"/>
+      <c r="B61" s="68"/>
       <c r="C61" s="21"/>
       <c r="D61" s="47"/>
       <c r="E61" s="47"/>
@@ -3617,12 +3643,12 @@
       <c r="J61" s="24"/>
       <c r="K61" s="42"/>
       <c r="L61" s="54"/>
-      <c r="M61" s="60"/>
+      <c r="M61" s="63"/>
       <c r="N61" s="40"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="54"/>
-      <c r="B62" s="57"/>
+      <c r="B62" s="68"/>
       <c r="C62" s="21"/>
       <c r="D62" s="47"/>
       <c r="E62" s="47"/>
@@ -3633,12 +3659,12 @@
       <c r="J62" s="24"/>
       <c r="K62" s="42"/>
       <c r="L62" s="54"/>
-      <c r="M62" s="60"/>
+      <c r="M62" s="63"/>
       <c r="N62" s="40"/>
     </row>
     <row r="63" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="55"/>
-      <c r="B63" s="58"/>
+      <c r="B63" s="69"/>
       <c r="C63" s="25"/>
       <c r="D63" s="26"/>
       <c r="E63" s="36"/>
@@ -3649,12 +3675,12 @@
       <c r="J63" s="28"/>
       <c r="K63" s="43"/>
       <c r="L63" s="55"/>
-      <c r="M63" s="61"/>
+      <c r="M63" s="64"/>
       <c r="N63" s="40"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="53"/>
-      <c r="B64" s="56"/>
+      <c r="B64" s="67"/>
       <c r="C64" s="18"/>
       <c r="D64" s="50"/>
       <c r="E64" s="50"/>
@@ -3665,12 +3691,12 @@
       <c r="J64" s="20"/>
       <c r="K64" s="41"/>
       <c r="L64" s="53"/>
-      <c r="M64" s="59"/>
+      <c r="M64" s="62"/>
       <c r="N64" s="40"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="54"/>
-      <c r="B65" s="57"/>
+      <c r="B65" s="68"/>
       <c r="C65" s="21"/>
       <c r="D65" s="47"/>
       <c r="E65" s="47"/>
@@ -3681,12 +3707,12 @@
       <c r="J65" s="24"/>
       <c r="K65" s="42"/>
       <c r="L65" s="54"/>
-      <c r="M65" s="60"/>
+      <c r="M65" s="63"/>
       <c r="N65" s="40"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="54"/>
-      <c r="B66" s="57"/>
+      <c r="B66" s="68"/>
       <c r="C66" s="21"/>
       <c r="D66" s="47"/>
       <c r="E66" s="47"/>
@@ -3697,12 +3723,12 @@
       <c r="J66" s="24"/>
       <c r="K66" s="42"/>
       <c r="L66" s="54"/>
-      <c r="M66" s="60"/>
+      <c r="M66" s="63"/>
       <c r="N66" s="40"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="54"/>
-      <c r="B67" s="57"/>
+      <c r="B67" s="68"/>
       <c r="C67" s="21"/>
       <c r="D67" s="47"/>
       <c r="E67" s="47"/>
@@ -3713,12 +3739,12 @@
       <c r="J67" s="24"/>
       <c r="K67" s="42"/>
       <c r="L67" s="54"/>
-      <c r="M67" s="60"/>
+      <c r="M67" s="63"/>
       <c r="N67" s="40"/>
     </row>
     <row r="68" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="55"/>
-      <c r="B68" s="58"/>
+      <c r="B68" s="69"/>
       <c r="C68" s="25"/>
       <c r="D68" s="26"/>
       <c r="E68" s="36"/>
@@ -3729,12 +3755,12 @@
       <c r="J68" s="28"/>
       <c r="K68" s="43"/>
       <c r="L68" s="55"/>
-      <c r="M68" s="61"/>
+      <c r="M68" s="64"/>
       <c r="N68" s="40"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="53"/>
-      <c r="B69" s="56"/>
+      <c r="B69" s="67"/>
       <c r="C69" s="18"/>
       <c r="D69" s="50"/>
       <c r="E69" s="50"/>
@@ -3745,12 +3771,12 @@
       <c r="J69" s="20"/>
       <c r="K69" s="41"/>
       <c r="L69" s="53"/>
-      <c r="M69" s="59"/>
+      <c r="M69" s="62"/>
       <c r="N69" s="40"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="54"/>
-      <c r="B70" s="57"/>
+      <c r="B70" s="68"/>
       <c r="C70" s="21"/>
       <c r="D70" s="47"/>
       <c r="E70" s="47"/>
@@ -3761,12 +3787,12 @@
       <c r="J70" s="24"/>
       <c r="K70" s="42"/>
       <c r="L70" s="54"/>
-      <c r="M70" s="60"/>
+      <c r="M70" s="63"/>
       <c r="N70" s="40"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="54"/>
-      <c r="B71" s="57"/>
+      <c r="B71" s="68"/>
       <c r="C71" s="21"/>
       <c r="D71" s="47"/>
       <c r="E71" s="47"/>
@@ -3777,12 +3803,12 @@
       <c r="J71" s="24"/>
       <c r="K71" s="42"/>
       <c r="L71" s="54"/>
-      <c r="M71" s="60"/>
+      <c r="M71" s="63"/>
       <c r="N71" s="40"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="54"/>
-      <c r="B72" s="57"/>
+      <c r="B72" s="68"/>
       <c r="C72" s="21"/>
       <c r="D72" s="47"/>
       <c r="E72" s="47"/>
@@ -3793,12 +3819,12 @@
       <c r="J72" s="24"/>
       <c r="K72" s="42"/>
       <c r="L72" s="54"/>
-      <c r="M72" s="60"/>
+      <c r="M72" s="63"/>
       <c r="N72" s="40"/>
     </row>
     <row r="73" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="55"/>
-      <c r="B73" s="58"/>
+      <c r="B73" s="69"/>
       <c r="C73" s="25"/>
       <c r="D73" s="26"/>
       <c r="E73" s="36"/>
@@ -3809,67 +3835,11 @@
       <c r="J73" s="28"/>
       <c r="K73" s="43"/>
       <c r="L73" s="55"/>
-      <c r="M73" s="61"/>
+      <c r="M73" s="64"/>
       <c r="N73" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="L17:L20"/>
-    <mergeCell ref="M17:M20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="L21:L25"/>
-    <mergeCell ref="M21:M25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="L30:L34"/>
-    <mergeCell ref="M30:M34"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="L35:L39"/>
-    <mergeCell ref="M35:M39"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="L40:L44"/>
-    <mergeCell ref="M40:M44"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="L45:L49"/>
-    <mergeCell ref="M45:M49"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="L50:L54"/>
-    <mergeCell ref="M50:M54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="L55:L58"/>
-    <mergeCell ref="M55:M58"/>
     <mergeCell ref="A69:A73"/>
     <mergeCell ref="B69:B73"/>
     <mergeCell ref="L69:L73"/>
@@ -3882,6 +3852,62 @@
     <mergeCell ref="B64:B68"/>
     <mergeCell ref="L64:L68"/>
     <mergeCell ref="M64:M68"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="L50:L54"/>
+    <mergeCell ref="M50:M54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="L55:L58"/>
+    <mergeCell ref="M55:M58"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="L40:L44"/>
+    <mergeCell ref="M40:M44"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="L45:L49"/>
+    <mergeCell ref="M45:M49"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="M30:M34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="L35:L39"/>
+    <mergeCell ref="M35:M39"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="L21:L25"/>
+    <mergeCell ref="M21:M25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="L17:L20"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M5:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3969,7 +3995,7 @@
       <c r="A2" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="56" t="s">
         <v>131</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -3999,13 +4025,13 @@
       <c r="K2" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="69"/>
-      <c r="M2" s="64"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="40"/>
     </row>
     <row r="3" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
-      <c r="B3" s="68"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="21" t="s">
         <v>33</v>
       </c>
@@ -4034,12 +4060,12 @@
         <v>32</v>
       </c>
       <c r="L3" s="54"/>
-      <c r="M3" s="68"/>
+      <c r="M3" s="57"/>
       <c r="N3" s="40"/>
     </row>
     <row r="4" spans="1:14" ht="141" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="55"/>
-      <c r="B4" s="67"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="25" t="s">
         <v>34</v>
       </c>
@@ -4068,14 +4094,14 @@
         <v>32</v>
       </c>
       <c r="L4" s="55"/>
-      <c r="M4" s="67"/>
+      <c r="M4" s="58"/>
       <c r="N4" s="40"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="56" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -4106,12 +4132,12 @@
         <v>32</v>
       </c>
       <c r="L5" s="53"/>
-      <c r="M5" s="64"/>
+      <c r="M5" s="56"/>
       <c r="N5" s="40"/>
     </row>
     <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="54"/>
-      <c r="B6" s="68"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="21" t="s">
         <v>33</v>
       </c>
@@ -4140,12 +4166,12 @@
         <v>32</v>
       </c>
       <c r="L6" s="54"/>
-      <c r="M6" s="68"/>
+      <c r="M6" s="57"/>
       <c r="N6" s="40"/>
     </row>
     <row r="7" spans="1:14" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="55"/>
-      <c r="B7" s="67"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="25" t="s">
         <v>34</v>
       </c>
@@ -4174,14 +4200,14 @@
         <v>32</v>
       </c>
       <c r="L7" s="55"/>
-      <c r="M7" s="67"/>
+      <c r="M7" s="58"/>
       <c r="N7" s="40"/>
     </row>
     <row r="8" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="56" t="s">
         <v>48</v>
       </c>
       <c r="C8" s="18" t="s">
@@ -4212,12 +4238,12 @@
         <v>32</v>
       </c>
       <c r="L8" s="53"/>
-      <c r="M8" s="64"/>
+      <c r="M8" s="56"/>
       <c r="N8" s="40"/>
     </row>
     <row r="9" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="54"/>
-      <c r="B9" s="68"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="21" t="s">
         <v>33</v>
       </c>
@@ -4246,12 +4272,12 @@
         <v>32</v>
       </c>
       <c r="L9" s="54"/>
-      <c r="M9" s="68"/>
+      <c r="M9" s="57"/>
       <c r="N9" s="40"/>
     </row>
     <row r="10" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="55"/>
-      <c r="B10" s="67"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="25" t="s">
         <v>34</v>
       </c>
@@ -4280,14 +4306,14 @@
         <v>32</v>
       </c>
       <c r="L10" s="55"/>
-      <c r="M10" s="67"/>
+      <c r="M10" s="58"/>
       <c r="N10" s="40"/>
     </row>
     <row r="11" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="56" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -4318,12 +4344,12 @@
         <v>32</v>
       </c>
       <c r="L11" s="53"/>
-      <c r="M11" s="59"/>
+      <c r="M11" s="62"/>
       <c r="N11" s="40"/>
     </row>
     <row r="12" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="54"/>
-      <c r="B12" s="68"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="21" t="s">
         <v>33</v>
       </c>
@@ -4352,12 +4378,12 @@
         <v>32</v>
       </c>
       <c r="L12" s="54"/>
-      <c r="M12" s="60"/>
+      <c r="M12" s="63"/>
       <c r="N12" s="40"/>
     </row>
     <row r="13" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="55"/>
-      <c r="B13" s="66"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="25" t="s">
         <v>34</v>
       </c>
@@ -4385,15 +4411,15 @@
       <c r="K13" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="63"/>
-      <c r="M13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="63"/>
       <c r="N13" s="40"/>
     </row>
     <row r="14" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="56" t="s">
         <v>55</v>
       </c>
       <c r="C14" s="18" t="s">
@@ -4424,12 +4450,12 @@
         <v>32</v>
       </c>
       <c r="L14" s="53"/>
-      <c r="M14" s="59"/>
+      <c r="M14" s="62"/>
       <c r="N14" s="40"/>
     </row>
     <row r="15" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="54"/>
-      <c r="B15" s="68"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="21" t="s">
         <v>33</v>
       </c>
@@ -4458,12 +4484,12 @@
         <v>32</v>
       </c>
       <c r="L15" s="54"/>
-      <c r="M15" s="60"/>
+      <c r="M15" s="63"/>
       <c r="N15" s="40"/>
     </row>
     <row r="16" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="55"/>
-      <c r="B16" s="66"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="25" t="s">
         <v>34</v>
       </c>
@@ -4491,13 +4517,13 @@
       <c r="K16" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="63"/>
-      <c r="M16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="63"/>
       <c r="N16" s="40"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="53"/>
-      <c r="B17" s="64"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="18"/>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
@@ -4508,12 +4534,12 @@
       <c r="J17" s="20"/>
       <c r="K17" s="41"/>
       <c r="L17" s="53"/>
-      <c r="M17" s="59"/>
+      <c r="M17" s="62"/>
       <c r="N17" s="40"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="54"/>
-      <c r="B18" s="68"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="21"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
@@ -4524,12 +4550,12 @@
       <c r="J18" s="24"/>
       <c r="K18" s="42"/>
       <c r="L18" s="54"/>
-      <c r="M18" s="60"/>
+      <c r="M18" s="63"/>
       <c r="N18" s="40"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="63"/>
-      <c r="B19" s="66"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="25"/>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
@@ -4539,13 +4565,13 @@
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
       <c r="K19" s="43"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="63"/>
       <c r="N19" s="40"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="63"/>
-      <c r="B20" s="66"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="32"/>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
@@ -4555,13 +4581,13 @@
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
       <c r="K20" s="44"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="61"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="64"/>
       <c r="N20" s="40"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="53"/>
-      <c r="B21" s="64"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="18"/>
       <c r="D21" s="37"/>
       <c r="E21" s="37"/>
@@ -4572,12 +4598,12 @@
       <c r="J21" s="20"/>
       <c r="K21" s="41"/>
       <c r="L21" s="53"/>
-      <c r="M21" s="59"/>
+      <c r="M21" s="62"/>
       <c r="N21" s="40"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="54"/>
-      <c r="B22" s="68"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="21"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
@@ -4588,12 +4614,12 @@
       <c r="J22" s="24"/>
       <c r="K22" s="42"/>
       <c r="L22" s="54"/>
-      <c r="M22" s="60"/>
+      <c r="M22" s="63"/>
       <c r="N22" s="40"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
-      <c r="B23" s="68"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="21"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
@@ -4604,12 +4630,12 @@
       <c r="J23" s="24"/>
       <c r="K23" s="42"/>
       <c r="L23" s="54"/>
-      <c r="M23" s="60"/>
+      <c r="M23" s="63"/>
       <c r="N23" s="40"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="63"/>
-      <c r="B24" s="66"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="61"/>
       <c r="C24" s="21"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
@@ -4619,13 +4645,13 @@
       <c r="I24" s="24"/>
       <c r="J24" s="24"/>
       <c r="K24" s="42"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="63"/>
       <c r="N24" s="40"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="55"/>
-      <c r="B25" s="67"/>
+      <c r="B25" s="58"/>
       <c r="C25" s="25"/>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
@@ -4636,12 +4662,12 @@
       <c r="J25" s="28"/>
       <c r="K25" s="43"/>
       <c r="L25" s="55"/>
-      <c r="M25" s="61"/>
+      <c r="M25" s="64"/>
       <c r="N25" s="40"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="62"/>
-      <c r="B26" s="65"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="33"/>
       <c r="D26" s="38"/>
       <c r="E26" s="38"/>
@@ -4651,13 +4677,13 @@
       <c r="I26" s="35"/>
       <c r="J26" s="35"/>
       <c r="K26" s="45"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="59"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="62"/>
       <c r="N26" s="40"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="54"/>
-      <c r="B27" s="68"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="21"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
@@ -4668,12 +4694,12 @@
       <c r="J27" s="24"/>
       <c r="K27" s="42"/>
       <c r="L27" s="54"/>
-      <c r="M27" s="60"/>
+      <c r="M27" s="63"/>
       <c r="N27" s="40"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
-      <c r="B28" s="68"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="21"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -4684,12 +4710,12 @@
       <c r="J28" s="24"/>
       <c r="K28" s="42"/>
       <c r="L28" s="54"/>
-      <c r="M28" s="60"/>
+      <c r="M28" s="63"/>
       <c r="N28" s="40"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="55"/>
-      <c r="B29" s="67"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="25"/>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
@@ -4700,12 +4726,12 @@
       <c r="J29" s="28"/>
       <c r="K29" s="43"/>
       <c r="L29" s="55"/>
-      <c r="M29" s="61"/>
+      <c r="M29" s="64"/>
       <c r="N29" s="40"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="53"/>
-      <c r="B30" s="56"/>
+      <c r="B30" s="67"/>
       <c r="C30" s="18"/>
       <c r="D30" s="37"/>
       <c r="E30" s="37"/>
@@ -4716,12 +4742,12 @@
       <c r="J30" s="20"/>
       <c r="K30" s="41"/>
       <c r="L30" s="53"/>
-      <c r="M30" s="59"/>
+      <c r="M30" s="62"/>
       <c r="N30" s="40"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="54"/>
-      <c r="B31" s="57"/>
+      <c r="B31" s="68"/>
       <c r="C31" s="21"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
@@ -4732,12 +4758,12 @@
       <c r="J31" s="24"/>
       <c r="K31" s="42"/>
       <c r="L31" s="54"/>
-      <c r="M31" s="60"/>
+      <c r="M31" s="63"/>
       <c r="N31" s="40"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
-      <c r="B32" s="57"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="21"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
@@ -4748,12 +4774,12 @@
       <c r="J32" s="24"/>
       <c r="K32" s="42"/>
       <c r="L32" s="54"/>
-      <c r="M32" s="60"/>
+      <c r="M32" s="63"/>
       <c r="N32" s="40"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="54"/>
-      <c r="B33" s="57"/>
+      <c r="B33" s="68"/>
       <c r="C33" s="21"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -4764,12 +4790,12 @@
       <c r="J33" s="24"/>
       <c r="K33" s="42"/>
       <c r="L33" s="54"/>
-      <c r="M33" s="60"/>
+      <c r="M33" s="63"/>
       <c r="N33" s="40"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="55"/>
-      <c r="B34" s="58"/>
+      <c r="B34" s="69"/>
       <c r="C34" s="25"/>
       <c r="D34" s="26"/>
       <c r="E34" s="36"/>
@@ -4780,12 +4806,12 @@
       <c r="J34" s="28"/>
       <c r="K34" s="43"/>
       <c r="L34" s="55"/>
-      <c r="M34" s="61"/>
+      <c r="M34" s="64"/>
       <c r="N34" s="40"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="53"/>
-      <c r="B35" s="56"/>
+      <c r="B35" s="67"/>
       <c r="C35" s="18"/>
       <c r="D35" s="37"/>
       <c r="E35" s="37"/>
@@ -4796,12 +4822,12 @@
       <c r="J35" s="20"/>
       <c r="K35" s="41"/>
       <c r="L35" s="53"/>
-      <c r="M35" s="59"/>
+      <c r="M35" s="62"/>
       <c r="N35" s="40"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="54"/>
-      <c r="B36" s="57"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="21"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
@@ -4812,12 +4838,12 @@
       <c r="J36" s="24"/>
       <c r="K36" s="42"/>
       <c r="L36" s="54"/>
-      <c r="M36" s="60"/>
+      <c r="M36" s="63"/>
       <c r="N36" s="40"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="54"/>
-      <c r="B37" s="57"/>
+      <c r="B37" s="68"/>
       <c r="C37" s="21"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
@@ -4828,12 +4854,12 @@
       <c r="J37" s="24"/>
       <c r="K37" s="42"/>
       <c r="L37" s="54"/>
-      <c r="M37" s="60"/>
+      <c r="M37" s="63"/>
       <c r="N37" s="40"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="54"/>
-      <c r="B38" s="57"/>
+      <c r="B38" s="68"/>
       <c r="C38" s="21"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
@@ -4844,12 +4870,12 @@
       <c r="J38" s="24"/>
       <c r="K38" s="42"/>
       <c r="L38" s="54"/>
-      <c r="M38" s="60"/>
+      <c r="M38" s="63"/>
       <c r="N38" s="40"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="55"/>
-      <c r="B39" s="58"/>
+      <c r="B39" s="69"/>
       <c r="C39" s="25"/>
       <c r="D39" s="26"/>
       <c r="E39" s="36"/>
@@ -4860,12 +4886,12 @@
       <c r="J39" s="28"/>
       <c r="K39" s="43"/>
       <c r="L39" s="55"/>
-      <c r="M39" s="61"/>
+      <c r="M39" s="64"/>
       <c r="N39" s="40"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="53"/>
-      <c r="B40" s="56"/>
+      <c r="B40" s="67"/>
       <c r="C40" s="18"/>
       <c r="D40" s="37"/>
       <c r="E40" s="37"/>
@@ -4876,12 +4902,12 @@
       <c r="J40" s="20"/>
       <c r="K40" s="41"/>
       <c r="L40" s="53"/>
-      <c r="M40" s="59"/>
+      <c r="M40" s="62"/>
       <c r="N40" s="40"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="54"/>
-      <c r="B41" s="57"/>
+      <c r="B41" s="68"/>
       <c r="C41" s="21"/>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
@@ -4892,12 +4918,12 @@
       <c r="J41" s="24"/>
       <c r="K41" s="42"/>
       <c r="L41" s="54"/>
-      <c r="M41" s="60"/>
+      <c r="M41" s="63"/>
       <c r="N41" s="40"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="54"/>
-      <c r="B42" s="57"/>
+      <c r="B42" s="68"/>
       <c r="C42" s="21"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
@@ -4908,12 +4934,12 @@
       <c r="J42" s="24"/>
       <c r="K42" s="42"/>
       <c r="L42" s="54"/>
-      <c r="M42" s="60"/>
+      <c r="M42" s="63"/>
       <c r="N42" s="40"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="54"/>
-      <c r="B43" s="57"/>
+      <c r="B43" s="68"/>
       <c r="C43" s="21"/>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
@@ -4924,12 +4950,12 @@
       <c r="J43" s="24"/>
       <c r="K43" s="42"/>
       <c r="L43" s="54"/>
-      <c r="M43" s="60"/>
+      <c r="M43" s="63"/>
       <c r="N43" s="40"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="55"/>
-      <c r="B44" s="58"/>
+      <c r="B44" s="69"/>
       <c r="C44" s="25"/>
       <c r="D44" s="26"/>
       <c r="E44" s="36"/>
@@ -4940,12 +4966,12 @@
       <c r="J44" s="28"/>
       <c r="K44" s="43"/>
       <c r="L44" s="55"/>
-      <c r="M44" s="61"/>
+      <c r="M44" s="64"/>
       <c r="N44" s="40"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="53"/>
-      <c r="B45" s="56"/>
+      <c r="B45" s="67"/>
       <c r="C45" s="18"/>
       <c r="D45" s="37"/>
       <c r="E45" s="37"/>
@@ -4956,12 +4982,12 @@
       <c r="J45" s="20"/>
       <c r="K45" s="41"/>
       <c r="L45" s="53"/>
-      <c r="M45" s="59"/>
+      <c r="M45" s="62"/>
       <c r="N45" s="40"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="54"/>
-      <c r="B46" s="57"/>
+      <c r="B46" s="68"/>
       <c r="C46" s="21"/>
       <c r="D46" s="22"/>
       <c r="E46" s="22"/>
@@ -4972,12 +4998,12 @@
       <c r="J46" s="24"/>
       <c r="K46" s="42"/>
       <c r="L46" s="54"/>
-      <c r="M46" s="60"/>
+      <c r="M46" s="63"/>
       <c r="N46" s="40"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="54"/>
-      <c r="B47" s="57"/>
+      <c r="B47" s="68"/>
       <c r="C47" s="21"/>
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
@@ -4988,12 +5014,12 @@
       <c r="J47" s="24"/>
       <c r="K47" s="42"/>
       <c r="L47" s="54"/>
-      <c r="M47" s="60"/>
+      <c r="M47" s="63"/>
       <c r="N47" s="40"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="54"/>
-      <c r="B48" s="57"/>
+      <c r="B48" s="68"/>
       <c r="C48" s="21"/>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
@@ -5004,12 +5030,12 @@
       <c r="J48" s="24"/>
       <c r="K48" s="42"/>
       <c r="L48" s="54"/>
-      <c r="M48" s="60"/>
+      <c r="M48" s="63"/>
       <c r="N48" s="40"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="55"/>
-      <c r="B49" s="58"/>
+      <c r="B49" s="69"/>
       <c r="C49" s="25"/>
       <c r="D49" s="26"/>
       <c r="E49" s="36"/>
@@ -5020,12 +5046,12 @@
       <c r="J49" s="28"/>
       <c r="K49" s="43"/>
       <c r="L49" s="55"/>
-      <c r="M49" s="61"/>
+      <c r="M49" s="64"/>
       <c r="N49" s="40"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="53"/>
-      <c r="B50" s="56"/>
+      <c r="B50" s="67"/>
       <c r="C50" s="18"/>
       <c r="D50" s="37"/>
       <c r="E50" s="37"/>
@@ -5036,12 +5062,12 @@
       <c r="J50" s="20"/>
       <c r="K50" s="41"/>
       <c r="L50" s="53"/>
-      <c r="M50" s="59"/>
+      <c r="M50" s="62"/>
       <c r="N50" s="40"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="54"/>
-      <c r="B51" s="57"/>
+      <c r="B51" s="68"/>
       <c r="C51" s="21"/>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
@@ -5052,12 +5078,12 @@
       <c r="J51" s="24"/>
       <c r="K51" s="42"/>
       <c r="L51" s="54"/>
-      <c r="M51" s="60"/>
+      <c r="M51" s="63"/>
       <c r="N51" s="40"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="54"/>
-      <c r="B52" s="57"/>
+      <c r="B52" s="68"/>
       <c r="C52" s="21"/>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
@@ -5068,12 +5094,12 @@
       <c r="J52" s="24"/>
       <c r="K52" s="42"/>
       <c r="L52" s="54"/>
-      <c r="M52" s="60"/>
+      <c r="M52" s="63"/>
       <c r="N52" s="40"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="54"/>
-      <c r="B53" s="57"/>
+      <c r="B53" s="68"/>
       <c r="C53" s="21"/>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
@@ -5084,12 +5110,12 @@
       <c r="J53" s="24"/>
       <c r="K53" s="42"/>
       <c r="L53" s="54"/>
-      <c r="M53" s="60"/>
+      <c r="M53" s="63"/>
       <c r="N53" s="40"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="55"/>
-      <c r="B54" s="58"/>
+      <c r="B54" s="69"/>
       <c r="C54" s="25"/>
       <c r="D54" s="26"/>
       <c r="E54" s="36"/>
@@ -5100,12 +5126,12 @@
       <c r="J54" s="28"/>
       <c r="K54" s="43"/>
       <c r="L54" s="55"/>
-      <c r="M54" s="61"/>
+      <c r="M54" s="64"/>
       <c r="N54" s="40"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="53"/>
-      <c r="B55" s="64"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="18"/>
       <c r="D55" s="37"/>
       <c r="E55" s="37"/>
@@ -5116,12 +5142,12 @@
       <c r="J55" s="20"/>
       <c r="K55" s="41"/>
       <c r="L55" s="53"/>
-      <c r="M55" s="59"/>
+      <c r="M55" s="62"/>
       <c r="N55" s="40"/>
     </row>
     <row r="56" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="62"/>
-      <c r="B56" s="65"/>
+      <c r="A56" s="65"/>
+      <c r="B56" s="66"/>
       <c r="C56" s="33"/>
       <c r="D56" s="22"/>
       <c r="E56" s="22"/>
@@ -5131,13 +5157,13 @@
       <c r="I56" s="35"/>
       <c r="J56" s="20"/>
       <c r="K56" s="41"/>
-      <c r="L56" s="62"/>
-      <c r="M56" s="60"/>
+      <c r="L56" s="65"/>
+      <c r="M56" s="63"/>
       <c r="N56" s="40"/>
     </row>
     <row r="57" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="63"/>
-      <c r="B57" s="66"/>
+      <c r="A57" s="60"/>
+      <c r="B57" s="61"/>
       <c r="C57" s="21"/>
       <c r="D57" s="22"/>
       <c r="E57" s="22"/>
@@ -5147,13 +5173,13 @@
       <c r="I57" s="24"/>
       <c r="J57" s="24"/>
       <c r="K57" s="42"/>
-      <c r="L57" s="63"/>
-      <c r="M57" s="60"/>
+      <c r="L57" s="60"/>
+      <c r="M57" s="63"/>
       <c r="N57" s="40"/>
     </row>
     <row r="58" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="55"/>
-      <c r="B58" s="67"/>
+      <c r="B58" s="58"/>
       <c r="C58" s="25"/>
       <c r="D58" s="26"/>
       <c r="E58" s="26"/>
@@ -5164,12 +5190,12 @@
       <c r="J58" s="28"/>
       <c r="K58" s="43"/>
       <c r="L58" s="55"/>
-      <c r="M58" s="61"/>
+      <c r="M58" s="64"/>
       <c r="N58" s="40"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="53"/>
-      <c r="B59" s="56"/>
+      <c r="B59" s="67"/>
       <c r="C59" s="18"/>
       <c r="D59" s="37"/>
       <c r="E59" s="37"/>
@@ -5180,12 +5206,12 @@
       <c r="J59" s="20"/>
       <c r="K59" s="41"/>
       <c r="L59" s="53"/>
-      <c r="M59" s="59"/>
+      <c r="M59" s="62"/>
       <c r="N59" s="40"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="54"/>
-      <c r="B60" s="57"/>
+      <c r="B60" s="68"/>
       <c r="C60" s="21"/>
       <c r="D60" s="22"/>
       <c r="E60" s="22"/>
@@ -5196,12 +5222,12 @@
       <c r="J60" s="24"/>
       <c r="K60" s="42"/>
       <c r="L60" s="54"/>
-      <c r="M60" s="60"/>
+      <c r="M60" s="63"/>
       <c r="N60" s="40"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="54"/>
-      <c r="B61" s="57"/>
+      <c r="B61" s="68"/>
       <c r="C61" s="21"/>
       <c r="D61" s="22"/>
       <c r="E61" s="22"/>
@@ -5212,12 +5238,12 @@
       <c r="J61" s="24"/>
       <c r="K61" s="42"/>
       <c r="L61" s="54"/>
-      <c r="M61" s="60"/>
+      <c r="M61" s="63"/>
       <c r="N61" s="40"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="54"/>
-      <c r="B62" s="57"/>
+      <c r="B62" s="68"/>
       <c r="C62" s="21"/>
       <c r="D62" s="22"/>
       <c r="E62" s="22"/>
@@ -5228,12 +5254,12 @@
       <c r="J62" s="24"/>
       <c r="K62" s="42"/>
       <c r="L62" s="54"/>
-      <c r="M62" s="60"/>
+      <c r="M62" s="63"/>
       <c r="N62" s="40"/>
     </row>
     <row r="63" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="55"/>
-      <c r="B63" s="58"/>
+      <c r="B63" s="69"/>
       <c r="C63" s="25"/>
       <c r="D63" s="26"/>
       <c r="E63" s="36"/>
@@ -5244,12 +5270,12 @@
       <c r="J63" s="28"/>
       <c r="K63" s="43"/>
       <c r="L63" s="55"/>
-      <c r="M63" s="61"/>
+      <c r="M63" s="64"/>
       <c r="N63" s="40"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="53"/>
-      <c r="B64" s="56"/>
+      <c r="B64" s="67"/>
       <c r="C64" s="18"/>
       <c r="D64" s="46"/>
       <c r="E64" s="46"/>
@@ -5260,12 +5286,12 @@
       <c r="J64" s="20"/>
       <c r="K64" s="41"/>
       <c r="L64" s="53"/>
-      <c r="M64" s="59"/>
+      <c r="M64" s="62"/>
       <c r="N64" s="40"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="54"/>
-      <c r="B65" s="57"/>
+      <c r="B65" s="68"/>
       <c r="C65" s="21"/>
       <c r="D65" s="22"/>
       <c r="E65" s="22"/>
@@ -5276,12 +5302,12 @@
       <c r="J65" s="24"/>
       <c r="K65" s="42"/>
       <c r="L65" s="54"/>
-      <c r="M65" s="60"/>
+      <c r="M65" s="63"/>
       <c r="N65" s="40"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="54"/>
-      <c r="B66" s="57"/>
+      <c r="B66" s="68"/>
       <c r="C66" s="21"/>
       <c r="D66" s="22"/>
       <c r="E66" s="22"/>
@@ -5292,12 +5318,12 @@
       <c r="J66" s="24"/>
       <c r="K66" s="42"/>
       <c r="L66" s="54"/>
-      <c r="M66" s="60"/>
+      <c r="M66" s="63"/>
       <c r="N66" s="40"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="54"/>
-      <c r="B67" s="57"/>
+      <c r="B67" s="68"/>
       <c r="C67" s="21"/>
       <c r="D67" s="22"/>
       <c r="E67" s="22"/>
@@ -5308,12 +5334,12 @@
       <c r="J67" s="24"/>
       <c r="K67" s="42"/>
       <c r="L67" s="54"/>
-      <c r="M67" s="60"/>
+      <c r="M67" s="63"/>
       <c r="N67" s="40"/>
     </row>
     <row r="68" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="55"/>
-      <c r="B68" s="58"/>
+      <c r="B68" s="69"/>
       <c r="C68" s="25"/>
       <c r="D68" s="26"/>
       <c r="E68" s="36"/>
@@ -5324,12 +5350,12 @@
       <c r="J68" s="28"/>
       <c r="K68" s="43"/>
       <c r="L68" s="55"/>
-      <c r="M68" s="61"/>
+      <c r="M68" s="64"/>
       <c r="N68" s="40"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="53"/>
-      <c r="B69" s="56"/>
+      <c r="B69" s="67"/>
       <c r="C69" s="18"/>
       <c r="D69" s="37"/>
       <c r="E69" s="37"/>
@@ -5340,12 +5366,12 @@
       <c r="J69" s="20"/>
       <c r="K69" s="41"/>
       <c r="L69" s="53"/>
-      <c r="M69" s="59"/>
+      <c r="M69" s="62"/>
       <c r="N69" s="40"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="54"/>
-      <c r="B70" s="57"/>
+      <c r="B70" s="68"/>
       <c r="C70" s="21"/>
       <c r="D70" s="22"/>
       <c r="E70" s="22"/>
@@ -5356,12 +5382,12 @@
       <c r="J70" s="24"/>
       <c r="K70" s="42"/>
       <c r="L70" s="54"/>
-      <c r="M70" s="60"/>
+      <c r="M70" s="63"/>
       <c r="N70" s="40"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="54"/>
-      <c r="B71" s="57"/>
+      <c r="B71" s="68"/>
       <c r="C71" s="21"/>
       <c r="D71" s="22"/>
       <c r="E71" s="22"/>
@@ -5372,12 +5398,12 @@
       <c r="J71" s="24"/>
       <c r="K71" s="42"/>
       <c r="L71" s="54"/>
-      <c r="M71" s="60"/>
+      <c r="M71" s="63"/>
       <c r="N71" s="40"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="54"/>
-      <c r="B72" s="57"/>
+      <c r="B72" s="68"/>
       <c r="C72" s="21"/>
       <c r="D72" s="22"/>
       <c r="E72" s="22"/>
@@ -5388,12 +5414,12 @@
       <c r="J72" s="24"/>
       <c r="K72" s="42"/>
       <c r="L72" s="54"/>
-      <c r="M72" s="60"/>
+      <c r="M72" s="63"/>
       <c r="N72" s="40"/>
     </row>
     <row r="73" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="55"/>
-      <c r="B73" s="58"/>
+      <c r="B73" s="69"/>
       <c r="C73" s="25"/>
       <c r="D73" s="26"/>
       <c r="E73" s="36"/>
@@ -5404,65 +5430,11 @@
       <c r="J73" s="28"/>
       <c r="K73" s="43"/>
       <c r="L73" s="55"/>
-      <c r="M73" s="61"/>
+      <c r="M73" s="64"/>
       <c r="N73" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="L64:L68"/>
-    <mergeCell ref="M64:M68"/>
-    <mergeCell ref="L69:L73"/>
-    <mergeCell ref="M69:M73"/>
-    <mergeCell ref="L50:L54"/>
-    <mergeCell ref="M50:M54"/>
-    <mergeCell ref="L55:L58"/>
-    <mergeCell ref="M55:M58"/>
-    <mergeCell ref="L59:L63"/>
-    <mergeCell ref="M59:M63"/>
-    <mergeCell ref="L35:L39"/>
-    <mergeCell ref="M35:M39"/>
-    <mergeCell ref="L40:L44"/>
-    <mergeCell ref="M40:M44"/>
-    <mergeCell ref="L45:L49"/>
-    <mergeCell ref="M45:M49"/>
-    <mergeCell ref="L21:L25"/>
-    <mergeCell ref="M21:M25"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="L30:L34"/>
-    <mergeCell ref="M30:M34"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="L17:L20"/>
-    <mergeCell ref="M17:M20"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
     <mergeCell ref="A21:A25"/>
     <mergeCell ref="B21:B25"/>
     <mergeCell ref="A35:A39"/>
@@ -5477,6 +5449,60 @@
     <mergeCell ref="B50:B54"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="L17:L20"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="L21:L25"/>
+    <mergeCell ref="M21:M25"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="M30:M34"/>
+    <mergeCell ref="L35:L39"/>
+    <mergeCell ref="M35:M39"/>
+    <mergeCell ref="L40:L44"/>
+    <mergeCell ref="M40:M44"/>
+    <mergeCell ref="L45:L49"/>
+    <mergeCell ref="M45:M49"/>
+    <mergeCell ref="L64:L68"/>
+    <mergeCell ref="M64:M68"/>
+    <mergeCell ref="L69:L73"/>
+    <mergeCell ref="M69:M73"/>
+    <mergeCell ref="L50:L54"/>
+    <mergeCell ref="M50:M54"/>
+    <mergeCell ref="L55:L58"/>
+    <mergeCell ref="M55:M58"/>
+    <mergeCell ref="L59:L63"/>
+    <mergeCell ref="M59:M63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5500,7 +5526,7 @@
   <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5565,7 +5591,7 @@
       <c r="A2" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="56" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -5595,13 +5621,13 @@
       <c r="K2" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="69"/>
-      <c r="M2" s="64"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="40"/>
     </row>
     <row r="3" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
-      <c r="B3" s="68"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="21" t="s">
         <v>33</v>
       </c>
@@ -5630,12 +5656,12 @@
         <v>32</v>
       </c>
       <c r="L3" s="54"/>
-      <c r="M3" s="68"/>
+      <c r="M3" s="57"/>
       <c r="N3" s="40"/>
     </row>
     <row r="4" spans="1:14" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="55"/>
-      <c r="B4" s="67"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="25" t="s">
         <v>34</v>
       </c>
@@ -5664,14 +5690,14 @@
         <v>32</v>
       </c>
       <c r="L4" s="55"/>
-      <c r="M4" s="67"/>
+      <c r="M4" s="58"/>
       <c r="N4" s="40"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="56" t="s">
         <v>64</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -5702,12 +5728,12 @@
         <v>32</v>
       </c>
       <c r="L5" s="53"/>
-      <c r="M5" s="64"/>
+      <c r="M5" s="56"/>
       <c r="N5" s="40"/>
     </row>
     <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="54"/>
-      <c r="B6" s="68"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="21" t="s">
         <v>33</v>
       </c>
@@ -5736,12 +5762,12 @@
         <v>32</v>
       </c>
       <c r="L6" s="54"/>
-      <c r="M6" s="68"/>
+      <c r="M6" s="57"/>
       <c r="N6" s="40"/>
     </row>
     <row r="7" spans="1:14" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="55"/>
-      <c r="B7" s="67"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="25" t="s">
         <v>34</v>
       </c>
@@ -5770,12 +5796,12 @@
         <v>32</v>
       </c>
       <c r="L7" s="55"/>
-      <c r="M7" s="67"/>
+      <c r="M7" s="58"/>
       <c r="N7" s="40"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="53"/>
-      <c r="B8" s="64"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="18"/>
       <c r="D8" s="48"/>
       <c r="E8" s="48"/>
@@ -5786,12 +5812,12 @@
       <c r="J8" s="20"/>
       <c r="K8" s="41"/>
       <c r="L8" s="53"/>
-      <c r="M8" s="64"/>
+      <c r="M8" s="56"/>
       <c r="N8" s="40"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="54"/>
-      <c r="B9" s="68"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="21"/>
       <c r="D9" s="47"/>
       <c r="E9" s="47"/>
@@ -5802,12 +5828,12 @@
       <c r="J9" s="24"/>
       <c r="K9" s="42"/>
       <c r="L9" s="54"/>
-      <c r="M9" s="68"/>
+      <c r="M9" s="57"/>
       <c r="N9" s="40"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="55"/>
-      <c r="B10" s="67"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="25"/>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5818,12 +5844,12 @@
       <c r="J10" s="28"/>
       <c r="K10" s="43"/>
       <c r="L10" s="55"/>
-      <c r="M10" s="67"/>
+      <c r="M10" s="58"/>
       <c r="N10" s="40"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="53"/>
-      <c r="B11" s="64"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="18"/>
       <c r="D11" s="48"/>
       <c r="E11" s="48"/>
@@ -5834,12 +5860,12 @@
       <c r="J11" s="20"/>
       <c r="K11" s="41"/>
       <c r="L11" s="53"/>
-      <c r="M11" s="59"/>
+      <c r="M11" s="62"/>
       <c r="N11" s="40"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="54"/>
-      <c r="B12" s="68"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="21"/>
       <c r="D12" s="47"/>
       <c r="E12" s="47"/>
@@ -5850,12 +5876,12 @@
       <c r="J12" s="24"/>
       <c r="K12" s="42"/>
       <c r="L12" s="54"/>
-      <c r="M12" s="60"/>
+      <c r="M12" s="63"/>
       <c r="N12" s="40"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="55"/>
-      <c r="B13" s="66"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
@@ -5865,13 +5891,13 @@
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
       <c r="K13" s="43"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="63"/>
       <c r="N13" s="40"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="53"/>
-      <c r="B14" s="64"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="18"/>
       <c r="D14" s="48"/>
       <c r="E14" s="48"/>
@@ -5882,12 +5908,12 @@
       <c r="J14" s="20"/>
       <c r="K14" s="41"/>
       <c r="L14" s="53"/>
-      <c r="M14" s="59"/>
+      <c r="M14" s="62"/>
       <c r="N14" s="40"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="54"/>
-      <c r="B15" s="68"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="21"/>
       <c r="D15" s="47"/>
       <c r="E15" s="47"/>
@@ -5898,12 +5924,12 @@
       <c r="J15" s="24"/>
       <c r="K15" s="42"/>
       <c r="L15" s="54"/>
-      <c r="M15" s="60"/>
+      <c r="M15" s="63"/>
       <c r="N15" s="40"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="55"/>
-      <c r="B16" s="66"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="25"/>
       <c r="D16" s="26"/>
       <c r="E16" s="52"/>
@@ -5913,13 +5939,13 @@
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
       <c r="K16" s="43"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="63"/>
       <c r="N16" s="40"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="53"/>
-      <c r="B17" s="64"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="18"/>
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>
@@ -5930,12 +5956,12 @@
       <c r="J17" s="20"/>
       <c r="K17" s="41"/>
       <c r="L17" s="53"/>
-      <c r="M17" s="59"/>
+      <c r="M17" s="62"/>
       <c r="N17" s="40"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="54"/>
-      <c r="B18" s="68"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="21"/>
       <c r="D18" s="47"/>
       <c r="E18" s="47"/>
@@ -5946,12 +5972,12 @@
       <c r="J18" s="24"/>
       <c r="K18" s="42"/>
       <c r="L18" s="54"/>
-      <c r="M18" s="60"/>
+      <c r="M18" s="63"/>
       <c r="N18" s="40"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="63"/>
-      <c r="B19" s="66"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="25"/>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
@@ -5961,13 +5987,13 @@
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
       <c r="K19" s="43"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="63"/>
       <c r="N19" s="40"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="63"/>
-      <c r="B20" s="66"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="32"/>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
@@ -5977,13 +6003,13 @@
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
       <c r="K20" s="44"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="61"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="64"/>
       <c r="N20" s="40"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="53"/>
-      <c r="B21" s="64"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="18"/>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
@@ -5994,12 +6020,12 @@
       <c r="J21" s="20"/>
       <c r="K21" s="41"/>
       <c r="L21" s="53"/>
-      <c r="M21" s="59"/>
+      <c r="M21" s="62"/>
       <c r="N21" s="40"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="54"/>
-      <c r="B22" s="68"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="21"/>
       <c r="D22" s="47"/>
       <c r="E22" s="47"/>
@@ -6010,12 +6036,12 @@
       <c r="J22" s="24"/>
       <c r="K22" s="42"/>
       <c r="L22" s="54"/>
-      <c r="M22" s="60"/>
+      <c r="M22" s="63"/>
       <c r="N22" s="40"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
-      <c r="B23" s="68"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="21"/>
       <c r="D23" s="47"/>
       <c r="E23" s="47"/>
@@ -6026,12 +6052,12 @@
       <c r="J23" s="24"/>
       <c r="K23" s="42"/>
       <c r="L23" s="54"/>
-      <c r="M23" s="60"/>
+      <c r="M23" s="63"/>
       <c r="N23" s="40"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="63"/>
-      <c r="B24" s="66"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="61"/>
       <c r="C24" s="21"/>
       <c r="D24" s="47"/>
       <c r="E24" s="47"/>
@@ -6041,13 +6067,13 @@
       <c r="I24" s="24"/>
       <c r="J24" s="24"/>
       <c r="K24" s="42"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="63"/>
       <c r="N24" s="40"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="55"/>
-      <c r="B25" s="67"/>
+      <c r="B25" s="58"/>
       <c r="C25" s="25"/>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
@@ -6058,12 +6084,12 @@
       <c r="J25" s="28"/>
       <c r="K25" s="43"/>
       <c r="L25" s="55"/>
-      <c r="M25" s="61"/>
+      <c r="M25" s="64"/>
       <c r="N25" s="40"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="62"/>
-      <c r="B26" s="65"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="33"/>
       <c r="D26" s="49"/>
       <c r="E26" s="49"/>
@@ -6073,13 +6099,13 @@
       <c r="I26" s="35"/>
       <c r="J26" s="35"/>
       <c r="K26" s="45"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="59"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="62"/>
       <c r="N26" s="40"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="54"/>
-      <c r="B27" s="68"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="21"/>
       <c r="D27" s="47"/>
       <c r="E27" s="47"/>
@@ -6090,12 +6116,12 @@
       <c r="J27" s="24"/>
       <c r="K27" s="42"/>
       <c r="L27" s="54"/>
-      <c r="M27" s="60"/>
+      <c r="M27" s="63"/>
       <c r="N27" s="40"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
-      <c r="B28" s="68"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="21"/>
       <c r="D28" s="47"/>
       <c r="E28" s="47"/>
@@ -6106,12 +6132,12 @@
       <c r="J28" s="24"/>
       <c r="K28" s="42"/>
       <c r="L28" s="54"/>
-      <c r="M28" s="60"/>
+      <c r="M28" s="63"/>
       <c r="N28" s="40"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="55"/>
-      <c r="B29" s="67"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="25"/>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
@@ -6122,12 +6148,12 @@
       <c r="J29" s="28"/>
       <c r="K29" s="43"/>
       <c r="L29" s="55"/>
-      <c r="M29" s="61"/>
+      <c r="M29" s="64"/>
       <c r="N29" s="40"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="53"/>
-      <c r="B30" s="56"/>
+      <c r="B30" s="67"/>
       <c r="C30" s="18"/>
       <c r="D30" s="48"/>
       <c r="E30" s="48"/>
@@ -6138,12 +6164,12 @@
       <c r="J30" s="20"/>
       <c r="K30" s="41"/>
       <c r="L30" s="53"/>
-      <c r="M30" s="59"/>
+      <c r="M30" s="62"/>
       <c r="N30" s="40"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="54"/>
-      <c r="B31" s="57"/>
+      <c r="B31" s="68"/>
       <c r="C31" s="21"/>
       <c r="D31" s="47"/>
       <c r="E31" s="47"/>
@@ -6154,12 +6180,12 @@
       <c r="J31" s="24"/>
       <c r="K31" s="42"/>
       <c r="L31" s="54"/>
-      <c r="M31" s="60"/>
+      <c r="M31" s="63"/>
       <c r="N31" s="40"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
-      <c r="B32" s="57"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="21"/>
       <c r="D32" s="47"/>
       <c r="E32" s="47"/>
@@ -6170,12 +6196,12 @@
       <c r="J32" s="24"/>
       <c r="K32" s="42"/>
       <c r="L32" s="54"/>
-      <c r="M32" s="60"/>
+      <c r="M32" s="63"/>
       <c r="N32" s="40"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="54"/>
-      <c r="B33" s="57"/>
+      <c r="B33" s="68"/>
       <c r="C33" s="21"/>
       <c r="D33" s="47"/>
       <c r="E33" s="47"/>
@@ -6186,12 +6212,12 @@
       <c r="J33" s="24"/>
       <c r="K33" s="42"/>
       <c r="L33" s="54"/>
-      <c r="M33" s="60"/>
+      <c r="M33" s="63"/>
       <c r="N33" s="40"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="55"/>
-      <c r="B34" s="58"/>
+      <c r="B34" s="69"/>
       <c r="C34" s="25"/>
       <c r="D34" s="26"/>
       <c r="E34" s="36"/>
@@ -6202,12 +6228,12 @@
       <c r="J34" s="28"/>
       <c r="K34" s="43"/>
       <c r="L34" s="55"/>
-      <c r="M34" s="61"/>
+      <c r="M34" s="64"/>
       <c r="N34" s="40"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="53"/>
-      <c r="B35" s="56"/>
+      <c r="B35" s="67"/>
       <c r="C35" s="18"/>
       <c r="D35" s="48"/>
       <c r="E35" s="48"/>
@@ -6218,12 +6244,12 @@
       <c r="J35" s="20"/>
       <c r="K35" s="41"/>
       <c r="L35" s="53"/>
-      <c r="M35" s="59"/>
+      <c r="M35" s="62"/>
       <c r="N35" s="40"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="54"/>
-      <c r="B36" s="57"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="21"/>
       <c r="D36" s="47"/>
       <c r="E36" s="47"/>
@@ -6234,12 +6260,12 @@
       <c r="J36" s="24"/>
       <c r="K36" s="42"/>
       <c r="L36" s="54"/>
-      <c r="M36" s="60"/>
+      <c r="M36" s="63"/>
       <c r="N36" s="40"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="54"/>
-      <c r="B37" s="57"/>
+      <c r="B37" s="68"/>
       <c r="C37" s="21"/>
       <c r="D37" s="47"/>
       <c r="E37" s="47"/>
@@ -6250,12 +6276,12 @@
       <c r="J37" s="24"/>
       <c r="K37" s="42"/>
       <c r="L37" s="54"/>
-      <c r="M37" s="60"/>
+      <c r="M37" s="63"/>
       <c r="N37" s="40"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="54"/>
-      <c r="B38" s="57"/>
+      <c r="B38" s="68"/>
       <c r="C38" s="21"/>
       <c r="D38" s="47"/>
       <c r="E38" s="47"/>
@@ -6266,12 +6292,12 @@
       <c r="J38" s="24"/>
       <c r="K38" s="42"/>
       <c r="L38" s="54"/>
-      <c r="M38" s="60"/>
+      <c r="M38" s="63"/>
       <c r="N38" s="40"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="55"/>
-      <c r="B39" s="58"/>
+      <c r="B39" s="69"/>
       <c r="C39" s="25"/>
       <c r="D39" s="26"/>
       <c r="E39" s="36"/>
@@ -6282,12 +6308,12 @@
       <c r="J39" s="28"/>
       <c r="K39" s="43"/>
       <c r="L39" s="55"/>
-      <c r="M39" s="61"/>
+      <c r="M39" s="64"/>
       <c r="N39" s="40"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="53"/>
-      <c r="B40" s="56"/>
+      <c r="B40" s="67"/>
       <c r="C40" s="18"/>
       <c r="D40" s="48"/>
       <c r="E40" s="48"/>
@@ -6298,12 +6324,12 @@
       <c r="J40" s="20"/>
       <c r="K40" s="41"/>
       <c r="L40" s="53"/>
-      <c r="M40" s="59"/>
+      <c r="M40" s="62"/>
       <c r="N40" s="40"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="54"/>
-      <c r="B41" s="57"/>
+      <c r="B41" s="68"/>
       <c r="C41" s="21"/>
       <c r="D41" s="47"/>
       <c r="E41" s="47"/>
@@ -6314,12 +6340,12 @@
       <c r="J41" s="24"/>
       <c r="K41" s="42"/>
       <c r="L41" s="54"/>
-      <c r="M41" s="60"/>
+      <c r="M41" s="63"/>
       <c r="N41" s="40"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="54"/>
-      <c r="B42" s="57"/>
+      <c r="B42" s="68"/>
       <c r="C42" s="21"/>
       <c r="D42" s="47"/>
       <c r="E42" s="47"/>
@@ -6330,12 +6356,12 @@
       <c r="J42" s="24"/>
       <c r="K42" s="42"/>
       <c r="L42" s="54"/>
-      <c r="M42" s="60"/>
+      <c r="M42" s="63"/>
       <c r="N42" s="40"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="54"/>
-      <c r="B43" s="57"/>
+      <c r="B43" s="68"/>
       <c r="C43" s="21"/>
       <c r="D43" s="47"/>
       <c r="E43" s="47"/>
@@ -6346,12 +6372,12 @@
       <c r="J43" s="24"/>
       <c r="K43" s="42"/>
       <c r="L43" s="54"/>
-      <c r="M43" s="60"/>
+      <c r="M43" s="63"/>
       <c r="N43" s="40"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="55"/>
-      <c r="B44" s="58"/>
+      <c r="B44" s="69"/>
       <c r="C44" s="25"/>
       <c r="D44" s="26"/>
       <c r="E44" s="36"/>
@@ -6362,12 +6388,12 @@
       <c r="J44" s="28"/>
       <c r="K44" s="43"/>
       <c r="L44" s="55"/>
-      <c r="M44" s="61"/>
+      <c r="M44" s="64"/>
       <c r="N44" s="40"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="53"/>
-      <c r="B45" s="56"/>
+      <c r="B45" s="67"/>
       <c r="C45" s="18"/>
       <c r="D45" s="48"/>
       <c r="E45" s="48"/>
@@ -6378,12 +6404,12 @@
       <c r="J45" s="20"/>
       <c r="K45" s="41"/>
       <c r="L45" s="53"/>
-      <c r="M45" s="59"/>
+      <c r="M45" s="62"/>
       <c r="N45" s="40"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="54"/>
-      <c r="B46" s="57"/>
+      <c r="B46" s="68"/>
       <c r="C46" s="21"/>
       <c r="D46" s="47"/>
       <c r="E46" s="47"/>
@@ -6394,12 +6420,12 @@
       <c r="J46" s="24"/>
       <c r="K46" s="42"/>
       <c r="L46" s="54"/>
-      <c r="M46" s="60"/>
+      <c r="M46" s="63"/>
       <c r="N46" s="40"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="54"/>
-      <c r="B47" s="57"/>
+      <c r="B47" s="68"/>
       <c r="C47" s="21"/>
       <c r="D47" s="47"/>
       <c r="E47" s="47"/>
@@ -6410,12 +6436,12 @@
       <c r="J47" s="24"/>
       <c r="K47" s="42"/>
       <c r="L47" s="54"/>
-      <c r="M47" s="60"/>
+      <c r="M47" s="63"/>
       <c r="N47" s="40"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="54"/>
-      <c r="B48" s="57"/>
+      <c r="B48" s="68"/>
       <c r="C48" s="21"/>
       <c r="D48" s="47"/>
       <c r="E48" s="47"/>
@@ -6426,12 +6452,12 @@
       <c r="J48" s="24"/>
       <c r="K48" s="42"/>
       <c r="L48" s="54"/>
-      <c r="M48" s="60"/>
+      <c r="M48" s="63"/>
       <c r="N48" s="40"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="55"/>
-      <c r="B49" s="58"/>
+      <c r="B49" s="69"/>
       <c r="C49" s="25"/>
       <c r="D49" s="26"/>
       <c r="E49" s="36"/>
@@ -6442,12 +6468,12 @@
       <c r="J49" s="28"/>
       <c r="K49" s="43"/>
       <c r="L49" s="55"/>
-      <c r="M49" s="61"/>
+      <c r="M49" s="64"/>
       <c r="N49" s="40"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="53"/>
-      <c r="B50" s="56"/>
+      <c r="B50" s="67"/>
       <c r="C50" s="18"/>
       <c r="D50" s="48"/>
       <c r="E50" s="48"/>
@@ -6458,12 +6484,12 @@
       <c r="J50" s="20"/>
       <c r="K50" s="41"/>
       <c r="L50" s="53"/>
-      <c r="M50" s="59"/>
+      <c r="M50" s="62"/>
       <c r="N50" s="40"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="54"/>
-      <c r="B51" s="57"/>
+      <c r="B51" s="68"/>
       <c r="C51" s="21"/>
       <c r="D51" s="47"/>
       <c r="E51" s="47"/>
@@ -6474,12 +6500,12 @@
       <c r="J51" s="24"/>
       <c r="K51" s="42"/>
       <c r="L51" s="54"/>
-      <c r="M51" s="60"/>
+      <c r="M51" s="63"/>
       <c r="N51" s="40"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="54"/>
-      <c r="B52" s="57"/>
+      <c r="B52" s="68"/>
       <c r="C52" s="21"/>
       <c r="D52" s="47"/>
       <c r="E52" s="47"/>
@@ -6490,12 +6516,12 @@
       <c r="J52" s="24"/>
       <c r="K52" s="42"/>
       <c r="L52" s="54"/>
-      <c r="M52" s="60"/>
+      <c r="M52" s="63"/>
       <c r="N52" s="40"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="54"/>
-      <c r="B53" s="57"/>
+      <c r="B53" s="68"/>
       <c r="C53" s="21"/>
       <c r="D53" s="47"/>
       <c r="E53" s="47"/>
@@ -6506,12 +6532,12 @@
       <c r="J53" s="24"/>
       <c r="K53" s="42"/>
       <c r="L53" s="54"/>
-      <c r="M53" s="60"/>
+      <c r="M53" s="63"/>
       <c r="N53" s="40"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="55"/>
-      <c r="B54" s="58"/>
+      <c r="B54" s="69"/>
       <c r="C54" s="25"/>
       <c r="D54" s="26"/>
       <c r="E54" s="36"/>
@@ -6522,12 +6548,12 @@
       <c r="J54" s="28"/>
       <c r="K54" s="43"/>
       <c r="L54" s="55"/>
-      <c r="M54" s="61"/>
+      <c r="M54" s="64"/>
       <c r="N54" s="40"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="53"/>
-      <c r="B55" s="64"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="18"/>
       <c r="D55" s="48"/>
       <c r="E55" s="48"/>
@@ -6538,12 +6564,12 @@
       <c r="J55" s="20"/>
       <c r="K55" s="41"/>
       <c r="L55" s="53"/>
-      <c r="M55" s="59"/>
+      <c r="M55" s="62"/>
       <c r="N55" s="40"/>
     </row>
     <row r="56" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="62"/>
-      <c r="B56" s="65"/>
+      <c r="A56" s="65"/>
+      <c r="B56" s="66"/>
       <c r="C56" s="33"/>
       <c r="D56" s="47"/>
       <c r="E56" s="47"/>
@@ -6553,13 +6579,13 @@
       <c r="I56" s="35"/>
       <c r="J56" s="20"/>
       <c r="K56" s="41"/>
-      <c r="L56" s="62"/>
-      <c r="M56" s="60"/>
+      <c r="L56" s="65"/>
+      <c r="M56" s="63"/>
       <c r="N56" s="40"/>
     </row>
     <row r="57" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="63"/>
-      <c r="B57" s="66"/>
+      <c r="A57" s="60"/>
+      <c r="B57" s="61"/>
       <c r="C57" s="21"/>
       <c r="D57" s="47"/>
       <c r="E57" s="47"/>
@@ -6569,13 +6595,13 @@
       <c r="I57" s="24"/>
       <c r="J57" s="24"/>
       <c r="K57" s="42"/>
-      <c r="L57" s="63"/>
-      <c r="M57" s="60"/>
+      <c r="L57" s="60"/>
+      <c r="M57" s="63"/>
       <c r="N57" s="40"/>
     </row>
     <row r="58" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="55"/>
-      <c r="B58" s="67"/>
+      <c r="B58" s="58"/>
       <c r="C58" s="25"/>
       <c r="D58" s="26"/>
       <c r="E58" s="26"/>
@@ -6586,12 +6612,12 @@
       <c r="J58" s="28"/>
       <c r="K58" s="43"/>
       <c r="L58" s="55"/>
-      <c r="M58" s="61"/>
+      <c r="M58" s="64"/>
       <c r="N58" s="40"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="53"/>
-      <c r="B59" s="56"/>
+      <c r="B59" s="67"/>
       <c r="C59" s="18"/>
       <c r="D59" s="48"/>
       <c r="E59" s="48"/>
@@ -6602,12 +6628,12 @@
       <c r="J59" s="20"/>
       <c r="K59" s="41"/>
       <c r="L59" s="53"/>
-      <c r="M59" s="59"/>
+      <c r="M59" s="62"/>
       <c r="N59" s="40"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="54"/>
-      <c r="B60" s="57"/>
+      <c r="B60" s="68"/>
       <c r="C60" s="21"/>
       <c r="D60" s="47"/>
       <c r="E60" s="47"/>
@@ -6618,12 +6644,12 @@
       <c r="J60" s="24"/>
       <c r="K60" s="42"/>
       <c r="L60" s="54"/>
-      <c r="M60" s="60"/>
+      <c r="M60" s="63"/>
       <c r="N60" s="40"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="54"/>
-      <c r="B61" s="57"/>
+      <c r="B61" s="68"/>
       <c r="C61" s="21"/>
       <c r="D61" s="47"/>
       <c r="E61" s="47"/>
@@ -6634,12 +6660,12 @@
       <c r="J61" s="24"/>
       <c r="K61" s="42"/>
       <c r="L61" s="54"/>
-      <c r="M61" s="60"/>
+      <c r="M61" s="63"/>
       <c r="N61" s="40"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="54"/>
-      <c r="B62" s="57"/>
+      <c r="B62" s="68"/>
       <c r="C62" s="21"/>
       <c r="D62" s="47"/>
       <c r="E62" s="47"/>
@@ -6650,12 +6676,12 @@
       <c r="J62" s="24"/>
       <c r="K62" s="42"/>
       <c r="L62" s="54"/>
-      <c r="M62" s="60"/>
+      <c r="M62" s="63"/>
       <c r="N62" s="40"/>
     </row>
     <row r="63" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="55"/>
-      <c r="B63" s="58"/>
+      <c r="B63" s="69"/>
       <c r="C63" s="25"/>
       <c r="D63" s="26"/>
       <c r="E63" s="36"/>
@@ -6666,12 +6692,12 @@
       <c r="J63" s="28"/>
       <c r="K63" s="43"/>
       <c r="L63" s="55"/>
-      <c r="M63" s="61"/>
+      <c r="M63" s="64"/>
       <c r="N63" s="40"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="53"/>
-      <c r="B64" s="56"/>
+      <c r="B64" s="67"/>
       <c r="C64" s="18"/>
       <c r="D64" s="48"/>
       <c r="E64" s="48"/>
@@ -6682,12 +6708,12 @@
       <c r="J64" s="20"/>
       <c r="K64" s="41"/>
       <c r="L64" s="53"/>
-      <c r="M64" s="59"/>
+      <c r="M64" s="62"/>
       <c r="N64" s="40"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="54"/>
-      <c r="B65" s="57"/>
+      <c r="B65" s="68"/>
       <c r="C65" s="21"/>
       <c r="D65" s="47"/>
       <c r="E65" s="47"/>
@@ -6698,12 +6724,12 @@
       <c r="J65" s="24"/>
       <c r="K65" s="42"/>
       <c r="L65" s="54"/>
-      <c r="M65" s="60"/>
+      <c r="M65" s="63"/>
       <c r="N65" s="40"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="54"/>
-      <c r="B66" s="57"/>
+      <c r="B66" s="68"/>
       <c r="C66" s="21"/>
       <c r="D66" s="47"/>
       <c r="E66" s="47"/>
@@ -6714,12 +6740,12 @@
       <c r="J66" s="24"/>
       <c r="K66" s="42"/>
       <c r="L66" s="54"/>
-      <c r="M66" s="60"/>
+      <c r="M66" s="63"/>
       <c r="N66" s="40"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="54"/>
-      <c r="B67" s="57"/>
+      <c r="B67" s="68"/>
       <c r="C67" s="21"/>
       <c r="D67" s="47"/>
       <c r="E67" s="47"/>
@@ -6730,12 +6756,12 @@
       <c r="J67" s="24"/>
       <c r="K67" s="42"/>
       <c r="L67" s="54"/>
-      <c r="M67" s="60"/>
+      <c r="M67" s="63"/>
       <c r="N67" s="40"/>
     </row>
     <row r="68" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="55"/>
-      <c r="B68" s="58"/>
+      <c r="B68" s="69"/>
       <c r="C68" s="25"/>
       <c r="D68" s="26"/>
       <c r="E68" s="36"/>
@@ -6746,12 +6772,12 @@
       <c r="J68" s="28"/>
       <c r="K68" s="43"/>
       <c r="L68" s="55"/>
-      <c r="M68" s="61"/>
+      <c r="M68" s="64"/>
       <c r="N68" s="40"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="53"/>
-      <c r="B69" s="56"/>
+      <c r="B69" s="67"/>
       <c r="C69" s="18"/>
       <c r="D69" s="48"/>
       <c r="E69" s="48"/>
@@ -6762,12 +6788,12 @@
       <c r="J69" s="20"/>
       <c r="K69" s="41"/>
       <c r="L69" s="53"/>
-      <c r="M69" s="59"/>
+      <c r="M69" s="62"/>
       <c r="N69" s="40"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="54"/>
-      <c r="B70" s="57"/>
+      <c r="B70" s="68"/>
       <c r="C70" s="21"/>
       <c r="D70" s="47"/>
       <c r="E70" s="47"/>
@@ -6778,12 +6804,12 @@
       <c r="J70" s="24"/>
       <c r="K70" s="42"/>
       <c r="L70" s="54"/>
-      <c r="M70" s="60"/>
+      <c r="M70" s="63"/>
       <c r="N70" s="40"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="54"/>
-      <c r="B71" s="57"/>
+      <c r="B71" s="68"/>
       <c r="C71" s="21"/>
       <c r="D71" s="47"/>
       <c r="E71" s="47"/>
@@ -6794,12 +6820,12 @@
       <c r="J71" s="24"/>
       <c r="K71" s="42"/>
       <c r="L71" s="54"/>
-      <c r="M71" s="60"/>
+      <c r="M71" s="63"/>
       <c r="N71" s="40"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="54"/>
-      <c r="B72" s="57"/>
+      <c r="B72" s="68"/>
       <c r="C72" s="21"/>
       <c r="D72" s="47"/>
       <c r="E72" s="47"/>
@@ -6810,12 +6836,12 @@
       <c r="J72" s="24"/>
       <c r="K72" s="42"/>
       <c r="L72" s="54"/>
-      <c r="M72" s="60"/>
+      <c r="M72" s="63"/>
       <c r="N72" s="40"/>
     </row>
     <row r="73" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="55"/>
-      <c r="B73" s="58"/>
+      <c r="B73" s="69"/>
       <c r="C73" s="25"/>
       <c r="D73" s="26"/>
       <c r="E73" s="36"/>
@@ -6826,67 +6852,11 @@
       <c r="J73" s="28"/>
       <c r="K73" s="43"/>
       <c r="L73" s="55"/>
-      <c r="M73" s="61"/>
+      <c r="M73" s="64"/>
       <c r="N73" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="L17:L20"/>
-    <mergeCell ref="M17:M20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="L21:L25"/>
-    <mergeCell ref="M21:M25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="L30:L34"/>
-    <mergeCell ref="M30:M34"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="L35:L39"/>
-    <mergeCell ref="M35:M39"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="L40:L44"/>
-    <mergeCell ref="M40:M44"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="L45:L49"/>
-    <mergeCell ref="M45:M49"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="L50:L54"/>
-    <mergeCell ref="M50:M54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="L55:L58"/>
-    <mergeCell ref="M55:M58"/>
     <mergeCell ref="A69:A73"/>
     <mergeCell ref="B69:B73"/>
     <mergeCell ref="L69:L73"/>
@@ -6899,6 +6869,62 @@
     <mergeCell ref="B64:B68"/>
     <mergeCell ref="L64:L68"/>
     <mergeCell ref="M64:M68"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="L50:L54"/>
+    <mergeCell ref="M50:M54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="L55:L58"/>
+    <mergeCell ref="M55:M58"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="L40:L44"/>
+    <mergeCell ref="M40:M44"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="L45:L49"/>
+    <mergeCell ref="M45:M49"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="M30:M34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="L35:L39"/>
+    <mergeCell ref="M35:M39"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="L21:L25"/>
+    <mergeCell ref="M21:M25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="L17:L20"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M5:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -6986,7 +7012,7 @@
       <c r="A2" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="56" t="s">
         <v>67</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -7016,13 +7042,13 @@
       <c r="K2" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="69"/>
-      <c r="M2" s="64"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="40"/>
     </row>
     <row r="3" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
-      <c r="B3" s="68"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="21" t="s">
         <v>33</v>
       </c>
@@ -7051,12 +7077,12 @@
         <v>32</v>
       </c>
       <c r="L3" s="54"/>
-      <c r="M3" s="68"/>
+      <c r="M3" s="57"/>
       <c r="N3" s="40"/>
     </row>
     <row r="4" spans="1:14" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="55"/>
-      <c r="B4" s="67"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="25" t="s">
         <v>34</v>
       </c>
@@ -7085,14 +7111,14 @@
         <v>32</v>
       </c>
       <c r="L4" s="55"/>
-      <c r="M4" s="67"/>
+      <c r="M4" s="58"/>
       <c r="N4" s="40"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="56" t="s">
         <v>78</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -7123,12 +7149,12 @@
         <v>32</v>
       </c>
       <c r="L5" s="53"/>
-      <c r="M5" s="64"/>
+      <c r="M5" s="56"/>
       <c r="N5" s="40"/>
     </row>
     <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="54"/>
-      <c r="B6" s="68"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="21" t="s">
         <v>33</v>
       </c>
@@ -7157,12 +7183,12 @@
         <v>32</v>
       </c>
       <c r="L6" s="54"/>
-      <c r="M6" s="68"/>
+      <c r="M6" s="57"/>
       <c r="N6" s="40"/>
     </row>
     <row r="7" spans="1:14" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="55"/>
-      <c r="B7" s="67"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="25" t="s">
         <v>34</v>
       </c>
@@ -7191,14 +7217,14 @@
         <v>32</v>
       </c>
       <c r="L7" s="55"/>
-      <c r="M7" s="67"/>
+      <c r="M7" s="58"/>
       <c r="N7" s="40"/>
     </row>
     <row r="8" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="56" t="s">
         <v>79</v>
       </c>
       <c r="C8" s="18" t="s">
@@ -7229,12 +7255,12 @@
         <v>32</v>
       </c>
       <c r="L8" s="53"/>
-      <c r="M8" s="64"/>
+      <c r="M8" s="56"/>
       <c r="N8" s="40"/>
     </row>
     <row r="9" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="54"/>
-      <c r="B9" s="68"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="21" t="s">
         <v>33</v>
       </c>
@@ -7263,12 +7289,12 @@
         <v>32</v>
       </c>
       <c r="L9" s="54"/>
-      <c r="M9" s="68"/>
+      <c r="M9" s="57"/>
       <c r="N9" s="40"/>
     </row>
     <row r="10" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="55"/>
-      <c r="B10" s="67"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="25" t="s">
         <v>34</v>
       </c>
@@ -7297,14 +7323,14 @@
         <v>32</v>
       </c>
       <c r="L10" s="55"/>
-      <c r="M10" s="67"/>
+      <c r="M10" s="58"/>
       <c r="N10" s="40"/>
     </row>
     <row r="11" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="56" t="s">
         <v>80</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -7335,12 +7361,12 @@
         <v>32</v>
       </c>
       <c r="L11" s="53"/>
-      <c r="M11" s="59"/>
+      <c r="M11" s="62"/>
       <c r="N11" s="40"/>
     </row>
     <row r="12" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="54"/>
-      <c r="B12" s="68"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="21" t="s">
         <v>33</v>
       </c>
@@ -7369,12 +7395,12 @@
         <v>32</v>
       </c>
       <c r="L12" s="54"/>
-      <c r="M12" s="60"/>
+      <c r="M12" s="63"/>
       <c r="N12" s="40"/>
     </row>
     <row r="13" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="55"/>
-      <c r="B13" s="66"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="25" t="s">
         <v>34</v>
       </c>
@@ -7402,15 +7428,15 @@
       <c r="K13" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="63"/>
-      <c r="M13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="63"/>
       <c r="N13" s="40"/>
     </row>
     <row r="14" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="56" t="s">
         <v>81</v>
       </c>
       <c r="C14" s="18" t="s">
@@ -7441,12 +7467,12 @@
         <v>32</v>
       </c>
       <c r="L14" s="53"/>
-      <c r="M14" s="59"/>
+      <c r="M14" s="62"/>
       <c r="N14" s="40"/>
     </row>
     <row r="15" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="54"/>
-      <c r="B15" s="68"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="21" t="s">
         <v>33</v>
       </c>
@@ -7475,12 +7501,12 @@
         <v>32</v>
       </c>
       <c r="L15" s="54"/>
-      <c r="M15" s="60"/>
+      <c r="M15" s="63"/>
       <c r="N15" s="40"/>
     </row>
     <row r="16" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="55"/>
-      <c r="B16" s="66"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="25" t="s">
         <v>34</v>
       </c>
@@ -7508,13 +7534,13 @@
       <c r="K16" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="63"/>
-      <c r="M16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="63"/>
       <c r="N16" s="40"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="53"/>
-      <c r="B17" s="64"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="18"/>
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>
@@ -7525,12 +7551,12 @@
       <c r="J17" s="20"/>
       <c r="K17" s="41"/>
       <c r="L17" s="53"/>
-      <c r="M17" s="59"/>
+      <c r="M17" s="62"/>
       <c r="N17" s="40"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="54"/>
-      <c r="B18" s="68"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="21"/>
       <c r="D18" s="47"/>
       <c r="E18" s="47"/>
@@ -7541,12 +7567,12 @@
       <c r="J18" s="24"/>
       <c r="K18" s="42"/>
       <c r="L18" s="54"/>
-      <c r="M18" s="60"/>
+      <c r="M18" s="63"/>
       <c r="N18" s="40"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="63"/>
-      <c r="B19" s="66"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="25"/>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
@@ -7556,13 +7582,13 @@
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
       <c r="K19" s="43"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="63"/>
       <c r="N19" s="40"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="63"/>
-      <c r="B20" s="66"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="32"/>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
@@ -7572,13 +7598,13 @@
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
       <c r="K20" s="44"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="61"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="64"/>
       <c r="N20" s="40"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="53"/>
-      <c r="B21" s="64"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="18"/>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
@@ -7589,12 +7615,12 @@
       <c r="J21" s="20"/>
       <c r="K21" s="41"/>
       <c r="L21" s="53"/>
-      <c r="M21" s="59"/>
+      <c r="M21" s="62"/>
       <c r="N21" s="40"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="54"/>
-      <c r="B22" s="68"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="21"/>
       <c r="D22" s="47"/>
       <c r="E22" s="47"/>
@@ -7605,12 +7631,12 @@
       <c r="J22" s="24"/>
       <c r="K22" s="42"/>
       <c r="L22" s="54"/>
-      <c r="M22" s="60"/>
+      <c r="M22" s="63"/>
       <c r="N22" s="40"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
-      <c r="B23" s="68"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="21"/>
       <c r="D23" s="47"/>
       <c r="E23" s="47"/>
@@ -7621,12 +7647,12 @@
       <c r="J23" s="24"/>
       <c r="K23" s="42"/>
       <c r="L23" s="54"/>
-      <c r="M23" s="60"/>
+      <c r="M23" s="63"/>
       <c r="N23" s="40"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="63"/>
-      <c r="B24" s="66"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="61"/>
       <c r="C24" s="21"/>
       <c r="D24" s="47"/>
       <c r="E24" s="47"/>
@@ -7636,13 +7662,13 @@
       <c r="I24" s="24"/>
       <c r="J24" s="24"/>
       <c r="K24" s="42"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="63"/>
       <c r="N24" s="40"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="55"/>
-      <c r="B25" s="67"/>
+      <c r="B25" s="58"/>
       <c r="C25" s="25"/>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
@@ -7653,12 +7679,12 @@
       <c r="J25" s="28"/>
       <c r="K25" s="43"/>
       <c r="L25" s="55"/>
-      <c r="M25" s="61"/>
+      <c r="M25" s="64"/>
       <c r="N25" s="40"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="62"/>
-      <c r="B26" s="65"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="33"/>
       <c r="D26" s="49"/>
       <c r="E26" s="49"/>
@@ -7668,13 +7694,13 @@
       <c r="I26" s="35"/>
       <c r="J26" s="35"/>
       <c r="K26" s="45"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="59"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="62"/>
       <c r="N26" s="40"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="54"/>
-      <c r="B27" s="68"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="21"/>
       <c r="D27" s="47"/>
       <c r="E27" s="47"/>
@@ -7685,12 +7711,12 @@
       <c r="J27" s="24"/>
       <c r="K27" s="42"/>
       <c r="L27" s="54"/>
-      <c r="M27" s="60"/>
+      <c r="M27" s="63"/>
       <c r="N27" s="40"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
-      <c r="B28" s="68"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="21"/>
       <c r="D28" s="47"/>
       <c r="E28" s="47"/>
@@ -7701,12 +7727,12 @@
       <c r="J28" s="24"/>
       <c r="K28" s="42"/>
       <c r="L28" s="54"/>
-      <c r="M28" s="60"/>
+      <c r="M28" s="63"/>
       <c r="N28" s="40"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="55"/>
-      <c r="B29" s="67"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="25"/>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
@@ -7717,12 +7743,12 @@
       <c r="J29" s="28"/>
       <c r="K29" s="43"/>
       <c r="L29" s="55"/>
-      <c r="M29" s="61"/>
+      <c r="M29" s="64"/>
       <c r="N29" s="40"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="53"/>
-      <c r="B30" s="56"/>
+      <c r="B30" s="67"/>
       <c r="C30" s="18"/>
       <c r="D30" s="48"/>
       <c r="E30" s="48"/>
@@ -7733,12 +7759,12 @@
       <c r="J30" s="20"/>
       <c r="K30" s="41"/>
       <c r="L30" s="53"/>
-      <c r="M30" s="59"/>
+      <c r="M30" s="62"/>
       <c r="N30" s="40"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="54"/>
-      <c r="B31" s="57"/>
+      <c r="B31" s="68"/>
       <c r="C31" s="21"/>
       <c r="D31" s="47"/>
       <c r="E31" s="47"/>
@@ -7749,12 +7775,12 @@
       <c r="J31" s="24"/>
       <c r="K31" s="42"/>
       <c r="L31" s="54"/>
-      <c r="M31" s="60"/>
+      <c r="M31" s="63"/>
       <c r="N31" s="40"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
-      <c r="B32" s="57"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="21"/>
       <c r="D32" s="47"/>
       <c r="E32" s="47"/>
@@ -7765,12 +7791,12 @@
       <c r="J32" s="24"/>
       <c r="K32" s="42"/>
       <c r="L32" s="54"/>
-      <c r="M32" s="60"/>
+      <c r="M32" s="63"/>
       <c r="N32" s="40"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="54"/>
-      <c r="B33" s="57"/>
+      <c r="B33" s="68"/>
       <c r="C33" s="21"/>
       <c r="D33" s="47"/>
       <c r="E33" s="47"/>
@@ -7781,12 +7807,12 @@
       <c r="J33" s="24"/>
       <c r="K33" s="42"/>
       <c r="L33" s="54"/>
-      <c r="M33" s="60"/>
+      <c r="M33" s="63"/>
       <c r="N33" s="40"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="55"/>
-      <c r="B34" s="58"/>
+      <c r="B34" s="69"/>
       <c r="C34" s="25"/>
       <c r="D34" s="26"/>
       <c r="E34" s="36"/>
@@ -7797,12 +7823,12 @@
       <c r="J34" s="28"/>
       <c r="K34" s="43"/>
       <c r="L34" s="55"/>
-      <c r="M34" s="61"/>
+      <c r="M34" s="64"/>
       <c r="N34" s="40"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="53"/>
-      <c r="B35" s="56"/>
+      <c r="B35" s="67"/>
       <c r="C35" s="18"/>
       <c r="D35" s="48"/>
       <c r="E35" s="48"/>
@@ -7813,12 +7839,12 @@
       <c r="J35" s="20"/>
       <c r="K35" s="41"/>
       <c r="L35" s="53"/>
-      <c r="M35" s="59"/>
+      <c r="M35" s="62"/>
       <c r="N35" s="40"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="54"/>
-      <c r="B36" s="57"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="21"/>
       <c r="D36" s="47"/>
       <c r="E36" s="47"/>
@@ -7829,12 +7855,12 @@
       <c r="J36" s="24"/>
       <c r="K36" s="42"/>
       <c r="L36" s="54"/>
-      <c r="M36" s="60"/>
+      <c r="M36" s="63"/>
       <c r="N36" s="40"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="54"/>
-      <c r="B37" s="57"/>
+      <c r="B37" s="68"/>
       <c r="C37" s="21"/>
       <c r="D37" s="47"/>
       <c r="E37" s="47"/>
@@ -7845,12 +7871,12 @@
       <c r="J37" s="24"/>
       <c r="K37" s="42"/>
       <c r="L37" s="54"/>
-      <c r="M37" s="60"/>
+      <c r="M37" s="63"/>
       <c r="N37" s="40"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="54"/>
-      <c r="B38" s="57"/>
+      <c r="B38" s="68"/>
       <c r="C38" s="21"/>
       <c r="D38" s="47"/>
       <c r="E38" s="47"/>
@@ -7861,12 +7887,12 @@
       <c r="J38" s="24"/>
       <c r="K38" s="42"/>
       <c r="L38" s="54"/>
-      <c r="M38" s="60"/>
+      <c r="M38" s="63"/>
       <c r="N38" s="40"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="55"/>
-      <c r="B39" s="58"/>
+      <c r="B39" s="69"/>
       <c r="C39" s="25"/>
       <c r="D39" s="26"/>
       <c r="E39" s="36"/>
@@ -7877,12 +7903,12 @@
       <c r="J39" s="28"/>
       <c r="K39" s="43"/>
       <c r="L39" s="55"/>
-      <c r="M39" s="61"/>
+      <c r="M39" s="64"/>
       <c r="N39" s="40"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="53"/>
-      <c r="B40" s="56"/>
+      <c r="B40" s="67"/>
       <c r="C40" s="18"/>
       <c r="D40" s="48"/>
       <c r="E40" s="48"/>
@@ -7893,12 +7919,12 @@
       <c r="J40" s="20"/>
       <c r="K40" s="41"/>
       <c r="L40" s="53"/>
-      <c r="M40" s="59"/>
+      <c r="M40" s="62"/>
       <c r="N40" s="40"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="54"/>
-      <c r="B41" s="57"/>
+      <c r="B41" s="68"/>
       <c r="C41" s="21"/>
       <c r="D41" s="47"/>
       <c r="E41" s="47"/>
@@ -7909,12 +7935,12 @@
       <c r="J41" s="24"/>
       <c r="K41" s="42"/>
       <c r="L41" s="54"/>
-      <c r="M41" s="60"/>
+      <c r="M41" s="63"/>
       <c r="N41" s="40"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="54"/>
-      <c r="B42" s="57"/>
+      <c r="B42" s="68"/>
       <c r="C42" s="21"/>
       <c r="D42" s="47"/>
       <c r="E42" s="47"/>
@@ -7925,12 +7951,12 @@
       <c r="J42" s="24"/>
       <c r="K42" s="42"/>
       <c r="L42" s="54"/>
-      <c r="M42" s="60"/>
+      <c r="M42" s="63"/>
       <c r="N42" s="40"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="54"/>
-      <c r="B43" s="57"/>
+      <c r="B43" s="68"/>
       <c r="C43" s="21"/>
       <c r="D43" s="47"/>
       <c r="E43" s="47"/>
@@ -7941,12 +7967,12 @@
       <c r="J43" s="24"/>
       <c r="K43" s="42"/>
       <c r="L43" s="54"/>
-      <c r="M43" s="60"/>
+      <c r="M43" s="63"/>
       <c r="N43" s="40"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="55"/>
-      <c r="B44" s="58"/>
+      <c r="B44" s="69"/>
       <c r="C44" s="25"/>
       <c r="D44" s="26"/>
       <c r="E44" s="36"/>
@@ -7957,12 +7983,12 @@
       <c r="J44" s="28"/>
       <c r="K44" s="43"/>
       <c r="L44" s="55"/>
-      <c r="M44" s="61"/>
+      <c r="M44" s="64"/>
       <c r="N44" s="40"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="53"/>
-      <c r="B45" s="56"/>
+      <c r="B45" s="67"/>
       <c r="C45" s="18"/>
       <c r="D45" s="48"/>
       <c r="E45" s="48"/>
@@ -7973,12 +7999,12 @@
       <c r="J45" s="20"/>
       <c r="K45" s="41"/>
       <c r="L45" s="53"/>
-      <c r="M45" s="59"/>
+      <c r="M45" s="62"/>
       <c r="N45" s="40"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="54"/>
-      <c r="B46" s="57"/>
+      <c r="B46" s="68"/>
       <c r="C46" s="21"/>
       <c r="D46" s="47"/>
       <c r="E46" s="47"/>
@@ -7989,12 +8015,12 @@
       <c r="J46" s="24"/>
       <c r="K46" s="42"/>
       <c r="L46" s="54"/>
-      <c r="M46" s="60"/>
+      <c r="M46" s="63"/>
       <c r="N46" s="40"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="54"/>
-      <c r="B47" s="57"/>
+      <c r="B47" s="68"/>
       <c r="C47" s="21"/>
       <c r="D47" s="47"/>
       <c r="E47" s="47"/>
@@ -8005,12 +8031,12 @@
       <c r="J47" s="24"/>
       <c r="K47" s="42"/>
       <c r="L47" s="54"/>
-      <c r="M47" s="60"/>
+      <c r="M47" s="63"/>
       <c r="N47" s="40"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="54"/>
-      <c r="B48" s="57"/>
+      <c r="B48" s="68"/>
       <c r="C48" s="21"/>
       <c r="D48" s="47"/>
       <c r="E48" s="47"/>
@@ -8021,12 +8047,12 @@
       <c r="J48" s="24"/>
       <c r="K48" s="42"/>
       <c r="L48" s="54"/>
-      <c r="M48" s="60"/>
+      <c r="M48" s="63"/>
       <c r="N48" s="40"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="55"/>
-      <c r="B49" s="58"/>
+      <c r="B49" s="69"/>
       <c r="C49" s="25"/>
       <c r="D49" s="26"/>
       <c r="E49" s="36"/>
@@ -8037,12 +8063,12 @@
       <c r="J49" s="28"/>
       <c r="K49" s="43"/>
       <c r="L49" s="55"/>
-      <c r="M49" s="61"/>
+      <c r="M49" s="64"/>
       <c r="N49" s="40"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="53"/>
-      <c r="B50" s="56"/>
+      <c r="B50" s="67"/>
       <c r="C50" s="18"/>
       <c r="D50" s="48"/>
       <c r="E50" s="48"/>
@@ -8053,12 +8079,12 @@
       <c r="J50" s="20"/>
       <c r="K50" s="41"/>
       <c r="L50" s="53"/>
-      <c r="M50" s="59"/>
+      <c r="M50" s="62"/>
       <c r="N50" s="40"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="54"/>
-      <c r="B51" s="57"/>
+      <c r="B51" s="68"/>
       <c r="C51" s="21"/>
       <c r="D51" s="47"/>
       <c r="E51" s="47"/>
@@ -8069,12 +8095,12 @@
       <c r="J51" s="24"/>
       <c r="K51" s="42"/>
       <c r="L51" s="54"/>
-      <c r="M51" s="60"/>
+      <c r="M51" s="63"/>
       <c r="N51" s="40"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="54"/>
-      <c r="B52" s="57"/>
+      <c r="B52" s="68"/>
       <c r="C52" s="21"/>
       <c r="D52" s="47"/>
       <c r="E52" s="47"/>
@@ -8085,12 +8111,12 @@
       <c r="J52" s="24"/>
       <c r="K52" s="42"/>
       <c r="L52" s="54"/>
-      <c r="M52" s="60"/>
+      <c r="M52" s="63"/>
       <c r="N52" s="40"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="54"/>
-      <c r="B53" s="57"/>
+      <c r="B53" s="68"/>
       <c r="C53" s="21"/>
       <c r="D53" s="47"/>
       <c r="E53" s="47"/>
@@ -8101,12 +8127,12 @@
       <c r="J53" s="24"/>
       <c r="K53" s="42"/>
       <c r="L53" s="54"/>
-      <c r="M53" s="60"/>
+      <c r="M53" s="63"/>
       <c r="N53" s="40"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="55"/>
-      <c r="B54" s="58"/>
+      <c r="B54" s="69"/>
       <c r="C54" s="25"/>
       <c r="D54" s="26"/>
       <c r="E54" s="36"/>
@@ -8117,12 +8143,12 @@
       <c r="J54" s="28"/>
       <c r="K54" s="43"/>
       <c r="L54" s="55"/>
-      <c r="M54" s="61"/>
+      <c r="M54" s="64"/>
       <c r="N54" s="40"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="53"/>
-      <c r="B55" s="64"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="18"/>
       <c r="D55" s="48"/>
       <c r="E55" s="48"/>
@@ -8133,12 +8159,12 @@
       <c r="J55" s="20"/>
       <c r="K55" s="41"/>
       <c r="L55" s="53"/>
-      <c r="M55" s="59"/>
+      <c r="M55" s="62"/>
       <c r="N55" s="40"/>
     </row>
     <row r="56" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="62"/>
-      <c r="B56" s="65"/>
+      <c r="A56" s="65"/>
+      <c r="B56" s="66"/>
       <c r="C56" s="33"/>
       <c r="D56" s="47"/>
       <c r="E56" s="47"/>
@@ -8148,13 +8174,13 @@
       <c r="I56" s="35"/>
       <c r="J56" s="20"/>
       <c r="K56" s="41"/>
-      <c r="L56" s="62"/>
-      <c r="M56" s="60"/>
+      <c r="L56" s="65"/>
+      <c r="M56" s="63"/>
       <c r="N56" s="40"/>
     </row>
     <row r="57" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="63"/>
-      <c r="B57" s="66"/>
+      <c r="A57" s="60"/>
+      <c r="B57" s="61"/>
       <c r="C57" s="21"/>
       <c r="D57" s="47"/>
       <c r="E57" s="47"/>
@@ -8164,13 +8190,13 @@
       <c r="I57" s="24"/>
       <c r="J57" s="24"/>
       <c r="K57" s="42"/>
-      <c r="L57" s="63"/>
-      <c r="M57" s="60"/>
+      <c r="L57" s="60"/>
+      <c r="M57" s="63"/>
       <c r="N57" s="40"/>
     </row>
     <row r="58" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="55"/>
-      <c r="B58" s="67"/>
+      <c r="B58" s="58"/>
       <c r="C58" s="25"/>
       <c r="D58" s="26"/>
       <c r="E58" s="26"/>
@@ -8181,12 +8207,12 @@
       <c r="J58" s="28"/>
       <c r="K58" s="43"/>
       <c r="L58" s="55"/>
-      <c r="M58" s="61"/>
+      <c r="M58" s="64"/>
       <c r="N58" s="40"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="53"/>
-      <c r="B59" s="56"/>
+      <c r="B59" s="67"/>
       <c r="C59" s="18"/>
       <c r="D59" s="48"/>
       <c r="E59" s="48"/>
@@ -8197,12 +8223,12 @@
       <c r="J59" s="20"/>
       <c r="K59" s="41"/>
       <c r="L59" s="53"/>
-      <c r="M59" s="59"/>
+      <c r="M59" s="62"/>
       <c r="N59" s="40"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="54"/>
-      <c r="B60" s="57"/>
+      <c r="B60" s="68"/>
       <c r="C60" s="21"/>
       <c r="D60" s="47"/>
       <c r="E60" s="47"/>
@@ -8213,12 +8239,12 @@
       <c r="J60" s="24"/>
       <c r="K60" s="42"/>
       <c r="L60" s="54"/>
-      <c r="M60" s="60"/>
+      <c r="M60" s="63"/>
       <c r="N60" s="40"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="54"/>
-      <c r="B61" s="57"/>
+      <c r="B61" s="68"/>
       <c r="C61" s="21"/>
       <c r="D61" s="47"/>
       <c r="E61" s="47"/>
@@ -8229,12 +8255,12 @@
       <c r="J61" s="24"/>
       <c r="K61" s="42"/>
       <c r="L61" s="54"/>
-      <c r="M61" s="60"/>
+      <c r="M61" s="63"/>
       <c r="N61" s="40"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="54"/>
-      <c r="B62" s="57"/>
+      <c r="B62" s="68"/>
       <c r="C62" s="21"/>
       <c r="D62" s="47"/>
       <c r="E62" s="47"/>
@@ -8245,12 +8271,12 @@
       <c r="J62" s="24"/>
       <c r="K62" s="42"/>
       <c r="L62" s="54"/>
-      <c r="M62" s="60"/>
+      <c r="M62" s="63"/>
       <c r="N62" s="40"/>
     </row>
     <row r="63" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="55"/>
-      <c r="B63" s="58"/>
+      <c r="B63" s="69"/>
       <c r="C63" s="25"/>
       <c r="D63" s="26"/>
       <c r="E63" s="36"/>
@@ -8261,12 +8287,12 @@
       <c r="J63" s="28"/>
       <c r="K63" s="43"/>
       <c r="L63" s="55"/>
-      <c r="M63" s="61"/>
+      <c r="M63" s="64"/>
       <c r="N63" s="40"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="53"/>
-      <c r="B64" s="56"/>
+      <c r="B64" s="67"/>
       <c r="C64" s="18"/>
       <c r="D64" s="48"/>
       <c r="E64" s="48"/>
@@ -8277,12 +8303,12 @@
       <c r="J64" s="20"/>
       <c r="K64" s="41"/>
       <c r="L64" s="53"/>
-      <c r="M64" s="59"/>
+      <c r="M64" s="62"/>
       <c r="N64" s="40"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="54"/>
-      <c r="B65" s="57"/>
+      <c r="B65" s="68"/>
       <c r="C65" s="21"/>
       <c r="D65" s="47"/>
       <c r="E65" s="47"/>
@@ -8293,12 +8319,12 @@
       <c r="J65" s="24"/>
       <c r="K65" s="42"/>
       <c r="L65" s="54"/>
-      <c r="M65" s="60"/>
+      <c r="M65" s="63"/>
       <c r="N65" s="40"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="54"/>
-      <c r="B66" s="57"/>
+      <c r="B66" s="68"/>
       <c r="C66" s="21"/>
       <c r="D66" s="47"/>
       <c r="E66" s="47"/>
@@ -8309,12 +8335,12 @@
       <c r="J66" s="24"/>
       <c r="K66" s="42"/>
       <c r="L66" s="54"/>
-      <c r="M66" s="60"/>
+      <c r="M66" s="63"/>
       <c r="N66" s="40"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="54"/>
-      <c r="B67" s="57"/>
+      <c r="B67" s="68"/>
       <c r="C67" s="21"/>
       <c r="D67" s="47"/>
       <c r="E67" s="47"/>
@@ -8325,12 +8351,12 @@
       <c r="J67" s="24"/>
       <c r="K67" s="42"/>
       <c r="L67" s="54"/>
-      <c r="M67" s="60"/>
+      <c r="M67" s="63"/>
       <c r="N67" s="40"/>
     </row>
     <row r="68" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="55"/>
-      <c r="B68" s="58"/>
+      <c r="B68" s="69"/>
       <c r="C68" s="25"/>
       <c r="D68" s="26"/>
       <c r="E68" s="36"/>
@@ -8341,12 +8367,12 @@
       <c r="J68" s="28"/>
       <c r="K68" s="43"/>
       <c r="L68" s="55"/>
-      <c r="M68" s="61"/>
+      <c r="M68" s="64"/>
       <c r="N68" s="40"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="53"/>
-      <c r="B69" s="56"/>
+      <c r="B69" s="67"/>
       <c r="C69" s="18"/>
       <c r="D69" s="48"/>
       <c r="E69" s="48"/>
@@ -8357,12 +8383,12 @@
       <c r="J69" s="20"/>
       <c r="K69" s="41"/>
       <c r="L69" s="53"/>
-      <c r="M69" s="59"/>
+      <c r="M69" s="62"/>
       <c r="N69" s="40"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="54"/>
-      <c r="B70" s="57"/>
+      <c r="B70" s="68"/>
       <c r="C70" s="21"/>
       <c r="D70" s="47"/>
       <c r="E70" s="47"/>
@@ -8373,12 +8399,12 @@
       <c r="J70" s="24"/>
       <c r="K70" s="42"/>
       <c r="L70" s="54"/>
-      <c r="M70" s="60"/>
+      <c r="M70" s="63"/>
       <c r="N70" s="40"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="54"/>
-      <c r="B71" s="57"/>
+      <c r="B71" s="68"/>
       <c r="C71" s="21"/>
       <c r="D71" s="47"/>
       <c r="E71" s="47"/>
@@ -8389,12 +8415,12 @@
       <c r="J71" s="24"/>
       <c r="K71" s="42"/>
       <c r="L71" s="54"/>
-      <c r="M71" s="60"/>
+      <c r="M71" s="63"/>
       <c r="N71" s="40"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="54"/>
-      <c r="B72" s="57"/>
+      <c r="B72" s="68"/>
       <c r="C72" s="21"/>
       <c r="D72" s="47"/>
       <c r="E72" s="47"/>
@@ -8405,12 +8431,12 @@
       <c r="J72" s="24"/>
       <c r="K72" s="42"/>
       <c r="L72" s="54"/>
-      <c r="M72" s="60"/>
+      <c r="M72" s="63"/>
       <c r="N72" s="40"/>
     </row>
     <row r="73" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="55"/>
-      <c r="B73" s="58"/>
+      <c r="B73" s="69"/>
       <c r="C73" s="25"/>
       <c r="D73" s="26"/>
       <c r="E73" s="36"/>
@@ -8421,67 +8447,11 @@
       <c r="J73" s="28"/>
       <c r="K73" s="43"/>
       <c r="L73" s="55"/>
-      <c r="M73" s="61"/>
+      <c r="M73" s="64"/>
       <c r="N73" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="L17:L20"/>
-    <mergeCell ref="M17:M20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="L21:L25"/>
-    <mergeCell ref="M21:M25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="L30:L34"/>
-    <mergeCell ref="M30:M34"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="L35:L39"/>
-    <mergeCell ref="M35:M39"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="L40:L44"/>
-    <mergeCell ref="M40:M44"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="L45:L49"/>
-    <mergeCell ref="M45:M49"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="L50:L54"/>
-    <mergeCell ref="M50:M54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="L55:L58"/>
-    <mergeCell ref="M55:M58"/>
     <mergeCell ref="A69:A73"/>
     <mergeCell ref="B69:B73"/>
     <mergeCell ref="L69:L73"/>
@@ -8494,6 +8464,62 @@
     <mergeCell ref="B64:B68"/>
     <mergeCell ref="L64:L68"/>
     <mergeCell ref="M64:M68"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="L50:L54"/>
+    <mergeCell ref="M50:M54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="L55:L58"/>
+    <mergeCell ref="M55:M58"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="L40:L44"/>
+    <mergeCell ref="M40:M44"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="L45:L49"/>
+    <mergeCell ref="M45:M49"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="M30:M34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="L35:L39"/>
+    <mergeCell ref="M35:M39"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="L21:L25"/>
+    <mergeCell ref="M21:M25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="L17:L20"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M5:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -8515,8 +8541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8581,7 +8607,7 @@
       <c r="A2" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="56" t="s">
         <v>135</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -8611,13 +8637,13 @@
       <c r="K2" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="69"/>
-      <c r="M2" s="64"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="40"/>
     </row>
     <row r="3" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
-      <c r="B3" s="68"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="21" t="s">
         <v>33</v>
       </c>
@@ -8646,20 +8672,20 @@
         <v>32</v>
       </c>
       <c r="L3" s="54"/>
-      <c r="M3" s="68"/>
+      <c r="M3" s="57"/>
       <c r="N3" s="40"/>
     </row>
     <row r="4" spans="1:14" ht="319.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="55"/>
-      <c r="B4" s="67"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="25" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="26" t="s">
         <v>136</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>137</v>
       </c>
       <c r="F4" s="27" t="s">
         <v>28</v>
@@ -8680,14 +8706,14 @@
         <v>32</v>
       </c>
       <c r="L4" s="55"/>
-      <c r="M4" s="67"/>
+      <c r="M4" s="58"/>
       <c r="N4" s="40"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="56" t="s">
         <v>82</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -8718,12 +8744,12 @@
         <v>32</v>
       </c>
       <c r="L5" s="53"/>
-      <c r="M5" s="64"/>
+      <c r="M5" s="56"/>
       <c r="N5" s="40"/>
     </row>
     <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="54"/>
-      <c r="B6" s="68"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="21" t="s">
         <v>33</v>
       </c>
@@ -8752,12 +8778,12 @@
         <v>32</v>
       </c>
       <c r="L6" s="54"/>
-      <c r="M6" s="68"/>
+      <c r="M6" s="57"/>
       <c r="N6" s="40"/>
     </row>
     <row r="7" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="55"/>
-      <c r="B7" s="67"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="25" t="s">
         <v>34</v>
       </c>
@@ -8786,14 +8812,14 @@
         <v>32</v>
       </c>
       <c r="L7" s="55"/>
-      <c r="M7" s="67"/>
+      <c r="M7" s="58"/>
       <c r="N7" s="40"/>
     </row>
     <row r="8" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="56" t="s">
         <v>85</v>
       </c>
       <c r="C8" s="18" t="s">
@@ -8824,12 +8850,12 @@
         <v>32</v>
       </c>
       <c r="L8" s="53"/>
-      <c r="M8" s="64"/>
+      <c r="M8" s="56"/>
       <c r="N8" s="40"/>
     </row>
     <row r="9" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="54"/>
-      <c r="B9" s="68"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="21" t="s">
         <v>33</v>
       </c>
@@ -8858,12 +8884,12 @@
         <v>32</v>
       </c>
       <c r="L9" s="54"/>
-      <c r="M9" s="68"/>
+      <c r="M9" s="57"/>
       <c r="N9" s="40"/>
     </row>
     <row r="10" spans="1:14" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="55"/>
-      <c r="B10" s="67"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="25" t="s">
         <v>34</v>
       </c>
@@ -8892,14 +8918,14 @@
         <v>32</v>
       </c>
       <c r="L10" s="55"/>
-      <c r="M10" s="67"/>
+      <c r="M10" s="58"/>
       <c r="N10" s="40"/>
     </row>
     <row r="11" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="56" t="s">
         <v>88</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -8930,12 +8956,12 @@
         <v>32</v>
       </c>
       <c r="L11" s="53"/>
-      <c r="M11" s="59"/>
+      <c r="M11" s="62"/>
       <c r="N11" s="40"/>
     </row>
     <row r="12" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="54"/>
-      <c r="B12" s="68"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="21" t="s">
         <v>33</v>
       </c>
@@ -8964,12 +8990,12 @@
         <v>32</v>
       </c>
       <c r="L12" s="54"/>
-      <c r="M12" s="60"/>
+      <c r="M12" s="63"/>
       <c r="N12" s="40"/>
     </row>
     <row r="13" spans="1:14" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="55"/>
-      <c r="B13" s="66"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="25" t="s">
         <v>34</v>
       </c>
@@ -8997,15 +9023,15 @@
       <c r="K13" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="63"/>
-      <c r="M13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="63"/>
       <c r="N13" s="40"/>
     </row>
     <row r="14" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="56" t="s">
         <v>91</v>
       </c>
       <c r="C14" s="18" t="s">
@@ -9036,17 +9062,17 @@
         <v>32</v>
       </c>
       <c r="L14" s="53"/>
-      <c r="M14" s="59"/>
+      <c r="M14" s="62"/>
       <c r="N14" s="40"/>
     </row>
     <row r="15" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="54"/>
-      <c r="B15" s="68"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="21" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E15" s="47" t="s">
         <v>123</v>
@@ -9070,12 +9096,12 @@
         <v>32</v>
       </c>
       <c r="L15" s="54"/>
-      <c r="M15" s="60"/>
+      <c r="M15" s="63"/>
       <c r="N15" s="40"/>
     </row>
     <row r="16" spans="1:14" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="55"/>
-      <c r="B16" s="66"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="25" t="s">
         <v>34</v>
       </c>
@@ -9103,13 +9129,13 @@
       <c r="K16" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="63"/>
-      <c r="M16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="63"/>
       <c r="N16" s="40"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="53"/>
-      <c r="B17" s="64"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="18"/>
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>
@@ -9120,12 +9146,12 @@
       <c r="J17" s="20"/>
       <c r="K17" s="41"/>
       <c r="L17" s="53"/>
-      <c r="M17" s="59"/>
+      <c r="M17" s="62"/>
       <c r="N17" s="40"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="54"/>
-      <c r="B18" s="68"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="21"/>
       <c r="D18" s="47"/>
       <c r="E18" s="47"/>
@@ -9136,12 +9162,12 @@
       <c r="J18" s="24"/>
       <c r="K18" s="42"/>
       <c r="L18" s="54"/>
-      <c r="M18" s="60"/>
+      <c r="M18" s="63"/>
       <c r="N18" s="40"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="63"/>
-      <c r="B19" s="66"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="25"/>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
@@ -9151,13 +9177,13 @@
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
       <c r="K19" s="43"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="63"/>
       <c r="N19" s="40"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="63"/>
-      <c r="B20" s="66"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="32"/>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
@@ -9167,13 +9193,13 @@
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
       <c r="K20" s="44"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="61"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="64"/>
       <c r="N20" s="40"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="53"/>
-      <c r="B21" s="64"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="18"/>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
@@ -9184,12 +9210,12 @@
       <c r="J21" s="20"/>
       <c r="K21" s="41"/>
       <c r="L21" s="53"/>
-      <c r="M21" s="59"/>
+      <c r="M21" s="62"/>
       <c r="N21" s="40"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="54"/>
-      <c r="B22" s="68"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="21"/>
       <c r="D22" s="47"/>
       <c r="E22" s="47"/>
@@ -9200,12 +9226,12 @@
       <c r="J22" s="24"/>
       <c r="K22" s="42"/>
       <c r="L22" s="54"/>
-      <c r="M22" s="60"/>
+      <c r="M22" s="63"/>
       <c r="N22" s="40"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
-      <c r="B23" s="68"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="21"/>
       <c r="D23" s="47"/>
       <c r="E23" s="47"/>
@@ -9216,12 +9242,12 @@
       <c r="J23" s="24"/>
       <c r="K23" s="42"/>
       <c r="L23" s="54"/>
-      <c r="M23" s="60"/>
+      <c r="M23" s="63"/>
       <c r="N23" s="40"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="63"/>
-      <c r="B24" s="66"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="61"/>
       <c r="C24" s="21"/>
       <c r="D24" s="47"/>
       <c r="E24" s="47"/>
@@ -9231,13 +9257,13 @@
       <c r="I24" s="24"/>
       <c r="J24" s="24"/>
       <c r="K24" s="42"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="63"/>
       <c r="N24" s="40"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="55"/>
-      <c r="B25" s="67"/>
+      <c r="B25" s="58"/>
       <c r="C25" s="25"/>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
@@ -9248,12 +9274,12 @@
       <c r="J25" s="28"/>
       <c r="K25" s="43"/>
       <c r="L25" s="55"/>
-      <c r="M25" s="61"/>
+      <c r="M25" s="64"/>
       <c r="N25" s="40"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="62"/>
-      <c r="B26" s="65"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="33"/>
       <c r="D26" s="49"/>
       <c r="E26" s="49"/>
@@ -9263,13 +9289,13 @@
       <c r="I26" s="35"/>
       <c r="J26" s="35"/>
       <c r="K26" s="45"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="59"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="62"/>
       <c r="N26" s="40"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="54"/>
-      <c r="B27" s="68"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="21"/>
       <c r="D27" s="47"/>
       <c r="E27" s="47"/>
@@ -9280,12 +9306,12 @@
       <c r="J27" s="24"/>
       <c r="K27" s="42"/>
       <c r="L27" s="54"/>
-      <c r="M27" s="60"/>
+      <c r="M27" s="63"/>
       <c r="N27" s="40"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
-      <c r="B28" s="68"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="21"/>
       <c r="D28" s="47"/>
       <c r="E28" s="47"/>
@@ -9296,12 +9322,12 @@
       <c r="J28" s="24"/>
       <c r="K28" s="42"/>
       <c r="L28" s="54"/>
-      <c r="M28" s="60"/>
+      <c r="M28" s="63"/>
       <c r="N28" s="40"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="55"/>
-      <c r="B29" s="67"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="25"/>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
@@ -9312,12 +9338,12 @@
       <c r="J29" s="28"/>
       <c r="K29" s="43"/>
       <c r="L29" s="55"/>
-      <c r="M29" s="61"/>
+      <c r="M29" s="64"/>
       <c r="N29" s="40"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="53"/>
-      <c r="B30" s="56"/>
+      <c r="B30" s="67"/>
       <c r="C30" s="18"/>
       <c r="D30" s="48"/>
       <c r="E30" s="48"/>
@@ -9328,12 +9354,12 @@
       <c r="J30" s="20"/>
       <c r="K30" s="41"/>
       <c r="L30" s="53"/>
-      <c r="M30" s="59"/>
+      <c r="M30" s="62"/>
       <c r="N30" s="40"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="54"/>
-      <c r="B31" s="57"/>
+      <c r="B31" s="68"/>
       <c r="C31" s="21"/>
       <c r="D31" s="47"/>
       <c r="E31" s="47"/>
@@ -9344,12 +9370,12 @@
       <c r="J31" s="24"/>
       <c r="K31" s="42"/>
       <c r="L31" s="54"/>
-      <c r="M31" s="60"/>
+      <c r="M31" s="63"/>
       <c r="N31" s="40"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
-      <c r="B32" s="57"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="21"/>
       <c r="D32" s="47"/>
       <c r="E32" s="47"/>
@@ -9360,12 +9386,12 @@
       <c r="J32" s="24"/>
       <c r="K32" s="42"/>
       <c r="L32" s="54"/>
-      <c r="M32" s="60"/>
+      <c r="M32" s="63"/>
       <c r="N32" s="40"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="54"/>
-      <c r="B33" s="57"/>
+      <c r="B33" s="68"/>
       <c r="C33" s="21"/>
       <c r="D33" s="47"/>
       <c r="E33" s="47"/>
@@ -9376,12 +9402,12 @@
       <c r="J33" s="24"/>
       <c r="K33" s="42"/>
       <c r="L33" s="54"/>
-      <c r="M33" s="60"/>
+      <c r="M33" s="63"/>
       <c r="N33" s="40"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="55"/>
-      <c r="B34" s="58"/>
+      <c r="B34" s="69"/>
       <c r="C34" s="25"/>
       <c r="D34" s="26"/>
       <c r="E34" s="36"/>
@@ -9392,12 +9418,12 @@
       <c r="J34" s="28"/>
       <c r="K34" s="43"/>
       <c r="L34" s="55"/>
-      <c r="M34" s="61"/>
+      <c r="M34" s="64"/>
       <c r="N34" s="40"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="53"/>
-      <c r="B35" s="56"/>
+      <c r="B35" s="67"/>
       <c r="C35" s="18"/>
       <c r="D35" s="48"/>
       <c r="E35" s="48"/>
@@ -9408,12 +9434,12 @@
       <c r="J35" s="20"/>
       <c r="K35" s="41"/>
       <c r="L35" s="53"/>
-      <c r="M35" s="59"/>
+      <c r="M35" s="62"/>
       <c r="N35" s="40"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="54"/>
-      <c r="B36" s="57"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="21"/>
       <c r="D36" s="47"/>
       <c r="E36" s="47"/>
@@ -9424,12 +9450,12 @@
       <c r="J36" s="24"/>
       <c r="K36" s="42"/>
       <c r="L36" s="54"/>
-      <c r="M36" s="60"/>
+      <c r="M36" s="63"/>
       <c r="N36" s="40"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="54"/>
-      <c r="B37" s="57"/>
+      <c r="B37" s="68"/>
       <c r="C37" s="21"/>
       <c r="D37" s="47"/>
       <c r="E37" s="47"/>
@@ -9440,12 +9466,12 @@
       <c r="J37" s="24"/>
       <c r="K37" s="42"/>
       <c r="L37" s="54"/>
-      <c r="M37" s="60"/>
+      <c r="M37" s="63"/>
       <c r="N37" s="40"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="54"/>
-      <c r="B38" s="57"/>
+      <c r="B38" s="68"/>
       <c r="C38" s="21"/>
       <c r="D38" s="47"/>
       <c r="E38" s="47"/>
@@ -9456,12 +9482,12 @@
       <c r="J38" s="24"/>
       <c r="K38" s="42"/>
       <c r="L38" s="54"/>
-      <c r="M38" s="60"/>
+      <c r="M38" s="63"/>
       <c r="N38" s="40"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="55"/>
-      <c r="B39" s="58"/>
+      <c r="B39" s="69"/>
       <c r="C39" s="25"/>
       <c r="D39" s="26"/>
       <c r="E39" s="36"/>
@@ -9472,12 +9498,12 @@
       <c r="J39" s="28"/>
       <c r="K39" s="43"/>
       <c r="L39" s="55"/>
-      <c r="M39" s="61"/>
+      <c r="M39" s="64"/>
       <c r="N39" s="40"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="53"/>
-      <c r="B40" s="56"/>
+      <c r="B40" s="67"/>
       <c r="C40" s="18"/>
       <c r="D40" s="48"/>
       <c r="E40" s="48"/>
@@ -9488,12 +9514,12 @@
       <c r="J40" s="20"/>
       <c r="K40" s="41"/>
       <c r="L40" s="53"/>
-      <c r="M40" s="59"/>
+      <c r="M40" s="62"/>
       <c r="N40" s="40"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="54"/>
-      <c r="B41" s="57"/>
+      <c r="B41" s="68"/>
       <c r="C41" s="21"/>
       <c r="D41" s="47"/>
       <c r="E41" s="47"/>
@@ -9504,12 +9530,12 @@
       <c r="J41" s="24"/>
       <c r="K41" s="42"/>
       <c r="L41" s="54"/>
-      <c r="M41" s="60"/>
+      <c r="M41" s="63"/>
       <c r="N41" s="40"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="54"/>
-      <c r="B42" s="57"/>
+      <c r="B42" s="68"/>
       <c r="C42" s="21"/>
       <c r="D42" s="47"/>
       <c r="E42" s="47"/>
@@ -9520,12 +9546,12 @@
       <c r="J42" s="24"/>
       <c r="K42" s="42"/>
       <c r="L42" s="54"/>
-      <c r="M42" s="60"/>
+      <c r="M42" s="63"/>
       <c r="N42" s="40"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="54"/>
-      <c r="B43" s="57"/>
+      <c r="B43" s="68"/>
       <c r="C43" s="21"/>
       <c r="D43" s="47"/>
       <c r="E43" s="47"/>
@@ -9536,12 +9562,12 @@
       <c r="J43" s="24"/>
       <c r="K43" s="42"/>
       <c r="L43" s="54"/>
-      <c r="M43" s="60"/>
+      <c r="M43" s="63"/>
       <c r="N43" s="40"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="55"/>
-      <c r="B44" s="58"/>
+      <c r="B44" s="69"/>
       <c r="C44" s="25"/>
       <c r="D44" s="26"/>
       <c r="E44" s="36"/>
@@ -9552,12 +9578,12 @@
       <c r="J44" s="28"/>
       <c r="K44" s="43"/>
       <c r="L44" s="55"/>
-      <c r="M44" s="61"/>
+      <c r="M44" s="64"/>
       <c r="N44" s="40"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="53"/>
-      <c r="B45" s="56"/>
+      <c r="B45" s="67"/>
       <c r="C45" s="18"/>
       <c r="D45" s="48"/>
       <c r="E45" s="48"/>
@@ -9568,12 +9594,12 @@
       <c r="J45" s="20"/>
       <c r="K45" s="41"/>
       <c r="L45" s="53"/>
-      <c r="M45" s="59"/>
+      <c r="M45" s="62"/>
       <c r="N45" s="40"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="54"/>
-      <c r="B46" s="57"/>
+      <c r="B46" s="68"/>
       <c r="C46" s="21"/>
       <c r="D46" s="47"/>
       <c r="E46" s="47"/>
@@ -9584,12 +9610,12 @@
       <c r="J46" s="24"/>
       <c r="K46" s="42"/>
       <c r="L46" s="54"/>
-      <c r="M46" s="60"/>
+      <c r="M46" s="63"/>
       <c r="N46" s="40"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="54"/>
-      <c r="B47" s="57"/>
+      <c r="B47" s="68"/>
       <c r="C47" s="21"/>
       <c r="D47" s="47"/>
       <c r="E47" s="47"/>
@@ -9600,12 +9626,12 @@
       <c r="J47" s="24"/>
       <c r="K47" s="42"/>
       <c r="L47" s="54"/>
-      <c r="M47" s="60"/>
+      <c r="M47" s="63"/>
       <c r="N47" s="40"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="54"/>
-      <c r="B48" s="57"/>
+      <c r="B48" s="68"/>
       <c r="C48" s="21"/>
       <c r="D48" s="47"/>
       <c r="E48" s="47"/>
@@ -9616,12 +9642,12 @@
       <c r="J48" s="24"/>
       <c r="K48" s="42"/>
       <c r="L48" s="54"/>
-      <c r="M48" s="60"/>
+      <c r="M48" s="63"/>
       <c r="N48" s="40"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="55"/>
-      <c r="B49" s="58"/>
+      <c r="B49" s="69"/>
       <c r="C49" s="25"/>
       <c r="D49" s="26"/>
       <c r="E49" s="36"/>
@@ -9632,12 +9658,12 @@
       <c r="J49" s="28"/>
       <c r="K49" s="43"/>
       <c r="L49" s="55"/>
-      <c r="M49" s="61"/>
+      <c r="M49" s="64"/>
       <c r="N49" s="40"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="53"/>
-      <c r="B50" s="56"/>
+      <c r="B50" s="67"/>
       <c r="C50" s="18"/>
       <c r="D50" s="48"/>
       <c r="E50" s="48"/>
@@ -9648,12 +9674,12 @@
       <c r="J50" s="20"/>
       <c r="K50" s="41"/>
       <c r="L50" s="53"/>
-      <c r="M50" s="59"/>
+      <c r="M50" s="62"/>
       <c r="N50" s="40"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="54"/>
-      <c r="B51" s="57"/>
+      <c r="B51" s="68"/>
       <c r="C51" s="21"/>
       <c r="D51" s="47"/>
       <c r="E51" s="47"/>
@@ -9664,12 +9690,12 @@
       <c r="J51" s="24"/>
       <c r="K51" s="42"/>
       <c r="L51" s="54"/>
-      <c r="M51" s="60"/>
+      <c r="M51" s="63"/>
       <c r="N51" s="40"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="54"/>
-      <c r="B52" s="57"/>
+      <c r="B52" s="68"/>
       <c r="C52" s="21"/>
       <c r="D52" s="47"/>
       <c r="E52" s="47"/>
@@ -9680,12 +9706,12 @@
       <c r="J52" s="24"/>
       <c r="K52" s="42"/>
       <c r="L52" s="54"/>
-      <c r="M52" s="60"/>
+      <c r="M52" s="63"/>
       <c r="N52" s="40"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="54"/>
-      <c r="B53" s="57"/>
+      <c r="B53" s="68"/>
       <c r="C53" s="21"/>
       <c r="D53" s="47"/>
       <c r="E53" s="47"/>
@@ -9696,12 +9722,12 @@
       <c r="J53" s="24"/>
       <c r="K53" s="42"/>
       <c r="L53" s="54"/>
-      <c r="M53" s="60"/>
+      <c r="M53" s="63"/>
       <c r="N53" s="40"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="55"/>
-      <c r="B54" s="58"/>
+      <c r="B54" s="69"/>
       <c r="C54" s="25"/>
       <c r="D54" s="26"/>
       <c r="E54" s="36"/>
@@ -9712,12 +9738,12 @@
       <c r="J54" s="28"/>
       <c r="K54" s="43"/>
       <c r="L54" s="55"/>
-      <c r="M54" s="61"/>
+      <c r="M54" s="64"/>
       <c r="N54" s="40"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="53"/>
-      <c r="B55" s="64"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="18"/>
       <c r="D55" s="48"/>
       <c r="E55" s="48"/>
@@ -9728,12 +9754,12 @@
       <c r="J55" s="20"/>
       <c r="K55" s="41"/>
       <c r="L55" s="53"/>
-      <c r="M55" s="59"/>
+      <c r="M55" s="62"/>
       <c r="N55" s="40"/>
     </row>
     <row r="56" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="62"/>
-      <c r="B56" s="65"/>
+      <c r="A56" s="65"/>
+      <c r="B56" s="66"/>
       <c r="C56" s="33"/>
       <c r="D56" s="47"/>
       <c r="E56" s="47"/>
@@ -9743,13 +9769,13 @@
       <c r="I56" s="35"/>
       <c r="J56" s="20"/>
       <c r="K56" s="41"/>
-      <c r="L56" s="62"/>
-      <c r="M56" s="60"/>
+      <c r="L56" s="65"/>
+      <c r="M56" s="63"/>
       <c r="N56" s="40"/>
     </row>
     <row r="57" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="63"/>
-      <c r="B57" s="66"/>
+      <c r="A57" s="60"/>
+      <c r="B57" s="61"/>
       <c r="C57" s="21"/>
       <c r="D57" s="47"/>
       <c r="E57" s="47"/>
@@ -9759,13 +9785,13 @@
       <c r="I57" s="24"/>
       <c r="J57" s="24"/>
       <c r="K57" s="42"/>
-      <c r="L57" s="63"/>
-      <c r="M57" s="60"/>
+      <c r="L57" s="60"/>
+      <c r="M57" s="63"/>
       <c r="N57" s="40"/>
     </row>
     <row r="58" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="55"/>
-      <c r="B58" s="67"/>
+      <c r="B58" s="58"/>
       <c r="C58" s="25"/>
       <c r="D58" s="26"/>
       <c r="E58" s="26"/>
@@ -9776,12 +9802,12 @@
       <c r="J58" s="28"/>
       <c r="K58" s="43"/>
       <c r="L58" s="55"/>
-      <c r="M58" s="61"/>
+      <c r="M58" s="64"/>
       <c r="N58" s="40"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="53"/>
-      <c r="B59" s="56"/>
+      <c r="B59" s="67"/>
       <c r="C59" s="18"/>
       <c r="D59" s="48"/>
       <c r="E59" s="48"/>
@@ -9792,12 +9818,12 @@
       <c r="J59" s="20"/>
       <c r="K59" s="41"/>
       <c r="L59" s="53"/>
-      <c r="M59" s="59"/>
+      <c r="M59" s="62"/>
       <c r="N59" s="40"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="54"/>
-      <c r="B60" s="57"/>
+      <c r="B60" s="68"/>
       <c r="C60" s="21"/>
       <c r="D60" s="47"/>
       <c r="E60" s="47"/>
@@ -9808,12 +9834,12 @@
       <c r="J60" s="24"/>
       <c r="K60" s="42"/>
       <c r="L60" s="54"/>
-      <c r="M60" s="60"/>
+      <c r="M60" s="63"/>
       <c r="N60" s="40"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="54"/>
-      <c r="B61" s="57"/>
+      <c r="B61" s="68"/>
       <c r="C61" s="21"/>
       <c r="D61" s="47"/>
       <c r="E61" s="47"/>
@@ -9824,12 +9850,12 @@
       <c r="J61" s="24"/>
       <c r="K61" s="42"/>
       <c r="L61" s="54"/>
-      <c r="M61" s="60"/>
+      <c r="M61" s="63"/>
       <c r="N61" s="40"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="54"/>
-      <c r="B62" s="57"/>
+      <c r="B62" s="68"/>
       <c r="C62" s="21"/>
       <c r="D62" s="47"/>
       <c r="E62" s="47"/>
@@ -9840,12 +9866,12 @@
       <c r="J62" s="24"/>
       <c r="K62" s="42"/>
       <c r="L62" s="54"/>
-      <c r="M62" s="60"/>
+      <c r="M62" s="63"/>
       <c r="N62" s="40"/>
     </row>
     <row r="63" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="55"/>
-      <c r="B63" s="58"/>
+      <c r="B63" s="69"/>
       <c r="C63" s="25"/>
       <c r="D63" s="26"/>
       <c r="E63" s="36"/>
@@ -9856,12 +9882,12 @@
       <c r="J63" s="28"/>
       <c r="K63" s="43"/>
       <c r="L63" s="55"/>
-      <c r="M63" s="61"/>
+      <c r="M63" s="64"/>
       <c r="N63" s="40"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="53"/>
-      <c r="B64" s="56"/>
+      <c r="B64" s="67"/>
       <c r="C64" s="18"/>
       <c r="D64" s="48"/>
       <c r="E64" s="48"/>
@@ -9872,12 +9898,12 @@
       <c r="J64" s="20"/>
       <c r="K64" s="41"/>
       <c r="L64" s="53"/>
-      <c r="M64" s="59"/>
+      <c r="M64" s="62"/>
       <c r="N64" s="40"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="54"/>
-      <c r="B65" s="57"/>
+      <c r="B65" s="68"/>
       <c r="C65" s="21"/>
       <c r="D65" s="47"/>
       <c r="E65" s="47"/>
@@ -9888,12 +9914,12 @@
       <c r="J65" s="24"/>
       <c r="K65" s="42"/>
       <c r="L65" s="54"/>
-      <c r="M65" s="60"/>
+      <c r="M65" s="63"/>
       <c r="N65" s="40"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="54"/>
-      <c r="B66" s="57"/>
+      <c r="B66" s="68"/>
       <c r="C66" s="21"/>
       <c r="D66" s="47"/>
       <c r="E66" s="47"/>
@@ -9904,12 +9930,12 @@
       <c r="J66" s="24"/>
       <c r="K66" s="42"/>
       <c r="L66" s="54"/>
-      <c r="M66" s="60"/>
+      <c r="M66" s="63"/>
       <c r="N66" s="40"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="54"/>
-      <c r="B67" s="57"/>
+      <c r="B67" s="68"/>
       <c r="C67" s="21"/>
       <c r="D67" s="47"/>
       <c r="E67" s="47"/>
@@ -9920,12 +9946,12 @@
       <c r="J67" s="24"/>
       <c r="K67" s="42"/>
       <c r="L67" s="54"/>
-      <c r="M67" s="60"/>
+      <c r="M67" s="63"/>
       <c r="N67" s="40"/>
     </row>
     <row r="68" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="55"/>
-      <c r="B68" s="58"/>
+      <c r="B68" s="69"/>
       <c r="C68" s="25"/>
       <c r="D68" s="26"/>
       <c r="E68" s="36"/>
@@ -9936,12 +9962,12 @@
       <c r="J68" s="28"/>
       <c r="K68" s="43"/>
       <c r="L68" s="55"/>
-      <c r="M68" s="61"/>
+      <c r="M68" s="64"/>
       <c r="N68" s="40"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="53"/>
-      <c r="B69" s="56"/>
+      <c r="B69" s="67"/>
       <c r="C69" s="18"/>
       <c r="D69" s="48"/>
       <c r="E69" s="48"/>
@@ -9952,12 +9978,12 @@
       <c r="J69" s="20"/>
       <c r="K69" s="41"/>
       <c r="L69" s="53"/>
-      <c r="M69" s="59"/>
+      <c r="M69" s="62"/>
       <c r="N69" s="40"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="54"/>
-      <c r="B70" s="57"/>
+      <c r="B70" s="68"/>
       <c r="C70" s="21"/>
       <c r="D70" s="47"/>
       <c r="E70" s="47"/>
@@ -9968,12 +9994,12 @@
       <c r="J70" s="24"/>
       <c r="K70" s="42"/>
       <c r="L70" s="54"/>
-      <c r="M70" s="60"/>
+      <c r="M70" s="63"/>
       <c r="N70" s="40"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="54"/>
-      <c r="B71" s="57"/>
+      <c r="B71" s="68"/>
       <c r="C71" s="21"/>
       <c r="D71" s="47"/>
       <c r="E71" s="47"/>
@@ -9984,12 +10010,12 @@
       <c r="J71" s="24"/>
       <c r="K71" s="42"/>
       <c r="L71" s="54"/>
-      <c r="M71" s="60"/>
+      <c r="M71" s="63"/>
       <c r="N71" s="40"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="54"/>
-      <c r="B72" s="57"/>
+      <c r="B72" s="68"/>
       <c r="C72" s="21"/>
       <c r="D72" s="47"/>
       <c r="E72" s="47"/>
@@ -10000,12 +10026,12 @@
       <c r="J72" s="24"/>
       <c r="K72" s="42"/>
       <c r="L72" s="54"/>
-      <c r="M72" s="60"/>
+      <c r="M72" s="63"/>
       <c r="N72" s="40"/>
     </row>
     <row r="73" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="55"/>
-      <c r="B73" s="58"/>
+      <c r="B73" s="69"/>
       <c r="C73" s="25"/>
       <c r="D73" s="26"/>
       <c r="E73" s="36"/>
@@ -10016,67 +10042,11 @@
       <c r="J73" s="28"/>
       <c r="K73" s="43"/>
       <c r="L73" s="55"/>
-      <c r="M73" s="61"/>
+      <c r="M73" s="64"/>
       <c r="N73" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="L17:L20"/>
-    <mergeCell ref="M17:M20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="L21:L25"/>
-    <mergeCell ref="M21:M25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="L30:L34"/>
-    <mergeCell ref="M30:M34"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="L35:L39"/>
-    <mergeCell ref="M35:M39"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="L40:L44"/>
-    <mergeCell ref="M40:M44"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="L45:L49"/>
-    <mergeCell ref="M45:M49"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="L50:L54"/>
-    <mergeCell ref="M50:M54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="L55:L58"/>
-    <mergeCell ref="M55:M58"/>
     <mergeCell ref="A69:A73"/>
     <mergeCell ref="B69:B73"/>
     <mergeCell ref="L69:L73"/>
@@ -10089,6 +10059,62 @@
     <mergeCell ref="B64:B68"/>
     <mergeCell ref="L64:L68"/>
     <mergeCell ref="M64:M68"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="L50:L54"/>
+    <mergeCell ref="M50:M54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="L55:L58"/>
+    <mergeCell ref="M55:M58"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="L40:L44"/>
+    <mergeCell ref="M40:M44"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="L45:L49"/>
+    <mergeCell ref="M45:M49"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="M30:M34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="L35:L39"/>
+    <mergeCell ref="M35:M39"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="L21:L25"/>
+    <mergeCell ref="M21:M25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="L17:L20"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M5:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10609,18 +10635,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10639,6 +10665,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{240B69ED-1AD7-4171-98D0-751BFC75C346}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2A6E54A-BAA0-41DA-BF2D-497ABA4A3F31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -10651,12 +10685,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{240B69ED-1AD7-4171-98D0-751BFC75C346}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>